--- a/population_dynamics/lab_6/Lab 6_YPR_Stripers_final.xlsx
+++ b/population_dynamics/lab_6/Lab 6_YPR_Stripers_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelgietzmann-sanders/schooling/population_dynamics/lab_6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA714F7-E7F9-D344-A89C-87857C3AC21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8D0869-25FD-6947-AF31-2B8A33093504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1400" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -710,47 +710,7 @@
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1335,85 +1295,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.26171116988358456</c:v>
+                  <c:v>1.434137974842975E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26171116988358456</c:v>
+                  <c:v>1.434137974842975E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26171116988358456</c:v>
+                  <c:v>1.434137974842975E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26171116988358456</c:v>
+                  <c:v>1.434137974842975E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26171116988358456</c:v>
+                  <c:v>1.434137974842975E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26171116988358484</c:v>
+                  <c:v>1.434137974842977E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26171117146508976</c:v>
+                  <c:v>1.4341379835102468E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26208954777855037</c:v>
+                  <c:v>1.4362451851218782E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31594691124546087</c:v>
+                  <c:v>1.7361928911800318E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.35872545920797982</c:v>
+                  <c:v>2.0873738831001321E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38192947612800132</c:v>
+                  <c:v>2.3597808797593354E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.40755085979582245</c:v>
+                  <c:v>2.7255757426047217E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.43677694720398325</c:v>
+                  <c:v>3.3193864699453211E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.46470897896297481</c:v>
+                  <c:v>4.1979472532565317E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.48839006473356988</c:v>
+                  <c:v>5.3949695470509977E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.50769534297057373</c:v>
+                  <c:v>7.0923224904331124E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.52580925214902507</c:v>
+                  <c:v>1.0051677742352412E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.54082266813144675</c:v>
+                  <c:v>1.5406700395915119E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.5528984645059305</c:v>
+                  <c:v>2.4529118678010831E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.56177604038739093</c:v>
+                  <c:v>3.3246350357756242E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.56688830495191755</c:v>
+                  <c:v>3.8356171366176112E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.56774056902938042</c:v>
+                  <c:v>3.9208405751095188E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.56775391796814489</c:v>
+                  <c:v>3.9221754304781711E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.56775410154532069</c:v>
+                  <c:v>3.9221937874753032E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.56775410518769309</c:v>
+                  <c:v>3.9221941516930592E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.56775410528795045</c:v>
+                  <c:v>3.922194161718065E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.56775410529163028</c:v>
+                  <c:v>3.9221941620860297E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1540,37 +1500,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.81593467802814179</c:v>
+                  <c:v>0.88634317202006407</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81593467802814179</c:v>
+                  <c:v>0.88634317202006407</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81593467802814179</c:v>
+                  <c:v>0.88634157373582489</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81593467802814179</c:v>
+                  <c:v>0.88345419869675801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81593467802814179</c:v>
+                  <c:v>0.88103370382895285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.81593467802814235</c:v>
+                  <c:v>0.86484566578620736</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.81593468123409318</c:v>
+                  <c:v>0.81824097657503614</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81640733160808299</c:v>
+                  <c:v>0.81700718885589996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88368159617790454</c:v>
+                  <c:v>0.88368176857055847</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92030050406337738</c:v>
+                  <c:v>0.92030050406986685</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92718917924750177</c:v>
+                  <c:v>0.92718917924750355</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.92548350276448099</c:v>
@@ -2227,85 +2187,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.5677541052918158</c:v>
+                  <c:v>3.9221941621045628E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51687051674833517</c:v>
+                  <c:v>3.2475814884951985E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47573374164424354</c:v>
+                  <c:v>2.5702863015071971E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44817505368211696</c:v>
+                  <c:v>1.9937705554373557E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.43106655627238832</c:v>
+                  <c:v>1.5213794673034848E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41919229715837258</c:v>
+                  <c:v>1.0753976315524466E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41246515130717443</c:v>
+                  <c:v>7.0341775358734957E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.40911062449414182</c:v>
+                  <c:v>4.2634492654798767E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.40783354902360491</c:v>
+                  <c:v>3.0080249154933749E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.40756409367592883</c:v>
+                  <c:v>2.7388072382086171E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4075510116533213</c:v>
+                  <c:v>2.7257275670316055E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.40755086195048618</c:v>
+                  <c:v>2.7255778965810523E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.40755085984023076</c:v>
+                  <c:v>2.7255757869927536E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.40755085979709388</c:v>
+                  <c:v>2.7255757438753823E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.40755085979587086</c:v>
+                  <c:v>2.7255757426532861E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.40755085979582478</c:v>
+                  <c:v>2.7255757426071173E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.40755085979582256</c:v>
+                  <c:v>2.7255757426048691E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.40755085979582245</c:v>
+                  <c:v>2.7255757426047317E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.40755085979582245</c:v>
+                  <c:v>2.7255757426047217E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.40755085979582245</c:v>
+                  <c:v>2.7255757426047217E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.40755085979582245</c:v>
+                  <c:v>2.7255757426047217E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.40755085979582245</c:v>
+                  <c:v>2.7255757426047217E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.40755085979582245</c:v>
+                  <c:v>2.7255757426047217E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.40755085979582245</c:v>
+                  <c:v>2.7255757426047217E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.40755085979582245</c:v>
+                  <c:v>2.7255757426047217E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.40755085979582245</c:v>
+                  <c:v>2.7255757426047217E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.40755085979582245</c:v>
+                  <c:v>2.7255757426047217E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3149,7 +3109,7 @@
                   <c:v>0.65048029525463946</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.6286960996857357</c:v>
+                  <c:v>0.62869609968573581</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.60765825659565476</c:v>
@@ -6882,82 +6842,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>2.1693919504627219</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1693919504627219</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1693919504627219</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1693919504627219</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1693919504627219</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1693919504627197</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1693919373532142</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1662600058028554</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7969921055836466</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5826981071964035</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4865417329071271</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3930877377514737</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2998719573596869</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2217411993170579</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1625013412206811</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1182968549005139</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0797719952077169</c:v>
+                  <c:v>3.9020293553184602</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0497971678096116</c:v>
+                  <c:v>2.5457716845885749</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0268686598704426</c:v>
+                  <c:v>1.5989951427003724</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0106413667982654</c:v>
+                  <c:v>1.1797367590367698</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0015272855907411</c:v>
+                  <c:v>1.0225718632451322</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0000238423374834</c:v>
+                  <c:v>1.0003452287718873</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.000000329937812</c:v>
+                  <c:v>1.0000047758210184</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.000000006598472</c:v>
+                  <c:v>1.0000000955105093</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.0000000001830673</c:v>
+                  <c:v>1.0000000026497848</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0000000000064815</c:v>
+                  <c:v>1.0000000000938161</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1</c:v>
@@ -7087,64 +7047,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>1.1363522157046042</c:v>
+                  <c:v>1.0460837388010191</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1363522157046042</c:v>
+                  <c:v>1.0460837388010191</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1363522157046042</c:v>
+                  <c:v>1.0460856251382984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1363522157046042</c:v>
+                  <c:v>1.0495045250962212</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1363522157046042</c:v>
+                  <c:v>1.052387865773988</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1363522157046035</c:v>
+                  <c:v>1.0720862876784165</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1363522112396758</c:v>
+                  <c:v>1.1331492870578286</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1356943321677564</c:v>
+                  <c:v>1.134860490696413</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0492344564578193</c:v>
+                  <c:v>1.0492342517683968</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0074852454754821</c:v>
+                  <c:v>1.0074852454683798</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0018430112237828</c:v>
+                  <c:v>1.0018430112237848</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0294460165574313</c:v>
+                  <c:v>1.0294460165574333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.096452404278947</c:v>
+                  <c:v>1.0964524042789492</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2091324908718566</c:v>
+                  <c:v>1.209132490871859</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3831676712627416</c:v>
+                  <c:v>1.3831676712627443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6990243283545909</c:v>
+                  <c:v>1.6990243283545943</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2732771103333413</c:v>
+                  <c:v>2.2732771103333458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.4965470120938011</c:v>
+                  <c:v>3.4965470120938078</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.9701503840212151</c:v>
+                  <c:v>6.9701503840212284</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>10</c:v>
@@ -7292,82 +7252,82 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>3.3057441661673259</c:v>
+                  <c:v>4.968277900887049</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3057441661673259</c:v>
+                  <c:v>4.968277900887049</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3057441661673259</c:v>
+                  <c:v>4.9682797872243283</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3057441661673259</c:v>
+                  <c:v>4.9716986871822506</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3057441661673259</c:v>
+                  <c:v>4.9745820278600181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3057441661673233</c:v>
+                  <c:v>4.994280449764446</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3057441485928898</c:v>
+                  <c:v>5.0553434491438587</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3019543379706118</c:v>
+                  <c:v>5.0570546527824423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.846226562041466</c:v>
+                  <c:v>4.9714284138544267</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5901833526718856</c:v>
+                  <c:v>4.9296794075544099</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4865417329071269</c:v>
+                  <c:v>4.9221941620860292</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3949307489752565</c:v>
+                  <c:v>4.9240371733098147</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3293179739171181</c:v>
+                  <c:v>4.951640178643463</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.3181936035960051</c:v>
+                  <c:v>5.0186465663649784</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3716338320925376</c:v>
+                  <c:v>5.1313266529578883</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.5014645261632555</c:v>
+                  <c:v>5.3053618333487744</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.7787963235623079</c:v>
+                  <c:v>5.6010536836730545</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.3230742781429532</c:v>
+                  <c:v>4.8190487949219207</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.5234156719642442</c:v>
+                  <c:v>5.0955421547941802</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.9807917508194803</c:v>
+                  <c:v>8.1498871430579989</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.001527285590742</c:v>
+                  <c:v>11.022571863245131</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.000023842337484</c:v>
+                  <c:v>11.000345228771888</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11.000000329937812</c:v>
+                  <c:v>11.000004775821019</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11.000000006598473</c:v>
+                  <c:v>11.00000009551051</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.000000000183068</c:v>
+                  <c:v>11.000000002649784</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11.000000000006482</c:v>
+                  <c:v>11.000000000093817</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>11</c:v>
@@ -7774,85 +7734,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.99999999999967326</c:v>
+                  <c:v>0.99999999999527478</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0984455233844774</c:v>
+                  <c:v>1.2077277124471542</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1934282889612655</c:v>
+                  <c:v>1.5259755925968572</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2668132700092869</c:v>
+                  <c:v>1.9672244388350157</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3170915187697139</c:v>
+                  <c:v>2.578051200492264</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3544001384098201</c:v>
+                  <c:v>3.6472036454310772</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3764898767624802</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3877764870898877</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3921221210243528</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3930425032561264</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3930872186733374</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.393087730386416</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3930877375996773</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3930877377471276</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3930877377513082</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3930877377514657</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3930877377514732</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3930877377514737</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3930877377514737</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3930877377514737</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3930877377514737</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.3930877377514737</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3930877377514737</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3930877377514737</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.3930877377514737</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3930877377514737</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.3930877377514737</c:v>
+                  <c:v>3.9221941620860297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7982,82 +7942,82 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1972257422192829</c:v>
+                  <c:v>5.1972257422192936</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5084582777968674</c:v>
+                  <c:v>2.5084582777968722</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7343703948745741</c:v>
+                  <c:v>1.7343703948745774</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3960080399687504</c:v>
+                  <c:v>1.3960080399687531</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1967423847435523</c:v>
+                  <c:v>1.1967423847435545</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0888680309220227</c:v>
+                  <c:v>1.0888680309220247</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0326218527552913</c:v>
+                  <c:v>1.0326218527552933</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0085304596591573</c:v>
+                  <c:v>1.0085304596591593</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0022696555746051</c:v>
+                  <c:v>1.0022696555746071</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0018482837654257</c:v>
+                  <c:v>1.0018482837654277</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0018430834826217</c:v>
+                  <c:v>1.0018430834826237</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0018430126633475</c:v>
+                  <c:v>1.0018430126633495</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0018430112637116</c:v>
+                  <c:v>1.0018430112637136</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0018430112252645</c:v>
+                  <c:v>1.0018430112252663</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0018430112238546</c:v>
+                  <c:v>1.0018430112238563</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0018430112237868</c:v>
+                  <c:v>1.0018430112237888</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0018430112237831</c:v>
+                  <c:v>1.0018430112237851</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0018430112237828</c:v>
+                  <c:v>1.0018430112237848</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0018430112237828</c:v>
+                  <c:v>1.0018430112237848</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0018430112237828</c:v>
+                  <c:v>1.0018430112237848</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0018430112237828</c:v>
+                  <c:v>1.0018430112237848</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0018430112237828</c:v>
+                  <c:v>1.0018430112237848</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0018430112237828</c:v>
+                  <c:v>1.0018430112237848</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.0018430112237828</c:v>
+                  <c:v>1.0018430112237848</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0018430112237828</c:v>
+                  <c:v>1.0018430112237848</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0018430112237828</c:v>
+                  <c:v>1.0018430112237848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8184,85 +8144,85 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>10.999999999999673</c:v>
+                  <c:v>10.999999999995275</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2956712656037599</c:v>
+                  <c:v>6.4049534546664475</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7018865667581329</c:v>
+                  <c:v>4.0344338703937295</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.001183664883861</c:v>
+                  <c:v>3.701594833709593</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7130995587384641</c:v>
+                  <c:v>3.9740592404610169</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5511425231533726</c:v>
+                  <c:v>4.8439460301746315</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4653579076845027</c:v>
+                  <c:v>5.0110621930080548</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4203983398451792</c:v>
+                  <c:v>4.9548160148413229</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4006525806835102</c:v>
+                  <c:v>4.9307246217451892</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3953121588307313</c:v>
+                  <c:v>4.9244638176606372</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.3949355024387629</c:v>
+                  <c:v>4.9240424458514571</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3949308138690375</c:v>
+                  <c:v>4.9240372455686536</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3949307502630246</c:v>
+                  <c:v>4.9240371747493796</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.3949307490108391</c:v>
+                  <c:v>4.9240371733497437</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3949307489765728</c:v>
+                  <c:v>4.9240371733112962</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.3949307489753204</c:v>
+                  <c:v>4.9240371733098858</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.39493074897526</c:v>
+                  <c:v>4.9240371733098183</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.3949307489752565</c:v>
+                  <c:v>4.9240371733098147</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.3949307489752565</c:v>
+                  <c:v>4.9240371733098147</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.3949307489752565</c:v>
+                  <c:v>4.9240371733098147</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.3949307489752565</c:v>
+                  <c:v>4.9240371733098147</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.3949307489752565</c:v>
+                  <c:v>4.9240371733098147</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.3949307489752565</c:v>
+                  <c:v>4.9240371733098147</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3949307489752565</c:v>
+                  <c:v>4.9240371733098147</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3949307489752565</c:v>
+                  <c:v>4.9240371733098147</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.3949307489752565</c:v>
+                  <c:v>4.9240371733098147</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.3949307489752565</c:v>
+                  <c:v>4.9240371733098147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14797,8 +14757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="BD7" sqref="BD7"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15996,143 +15956,143 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11:AN11" si="7">1/(1+EXP((M_50-F4)/M_SD))</f>
-        <v>7.1848803288488872E-32</v>
+        <v>6.5494253991189974E-39</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="7"/>
-        <v>7.2865044176891708E-21</v>
+        <v>3.2767007212958373E-34</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="7"/>
-        <v>5.2742296336609613E-11</v>
+        <v>5.310930580816692E-30</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="7"/>
-        <v>3.4630172264573995E-2</v>
+        <v>3.1361289129949501E-26</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="7"/>
-        <v>0.99999965904847377</v>
+        <v>7.4952211919844231E-23</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="7"/>
-        <v>0.99999999999997224</v>
+        <v>7.9663985275992104E-20</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>4.0971696771251756E-17</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>1.0997376542721491E-14</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>1.6485254359185795E-12</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>1.4664168361169672E-10</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>8.1730300854072315E-9</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2.9965528680477556E-7</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>7.5494873864965918E-6</v>
       </c>
       <c r="S11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>1.3589169075864651E-4</v>
       </c>
       <c r="T11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>1.8073190530782509E-3</v>
       </c>
       <c r="U11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>1.8085110292913362E-2</v>
       </c>
       <c r="V11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.12826783535317338</v>
       </c>
       <c r="W11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.48631092448758412</v>
       </c>
       <c r="X11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.83381464911578262</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.95717522681647149</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.98840148815072015</v>
       </c>
       <c r="AA11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.99647430239159096</v>
       </c>
       <c r="AB11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.99879273523305179</v>
       </c>
       <c r="AC11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.9995384027789731</v>
       </c>
       <c r="AD11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.99980499638570541</v>
       </c>
       <c r="AE11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.99990989581752743</v>
       </c>
       <c r="AF11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.99995488171978597</v>
       </c>
       <c r="AG11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.99997572035645754</v>
       </c>
       <c r="AH11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.99998606328047934</v>
       </c>
       <c r="AI11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.9999915240253443</v>
       </c>
       <c r="AJ11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.99999457106384382</v>
       </c>
       <c r="AK11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.99999635755593219</v>
       </c>
       <c r="AL11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.99999745243631866</v>
       </c>
       <c r="AM11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.99999815060068487</v>
       </c>
       <c r="AN11" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.99999861188595429</v>
       </c>
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.2">
@@ -16343,40 +16303,40 @@
       </c>
       <c r="AK15" s="2">
         <f t="dataTable" ref="AK15:AV22" dt2D="1" dtr="1" r1="B17" r2="B15" ca="1"/>
-        <v>0.61042924256914677</v>
+        <v>0.61102909981696374</v>
       </c>
       <c r="AL15" s="2">
-        <v>0.67870884011881583</v>
+        <v>0.6793086973666328</v>
       </c>
       <c r="AM15" s="2">
-        <v>0.73698387530167109</v>
+        <v>0.73758373254948806</v>
       </c>
       <c r="AN15" s="2">
-        <v>0.77743037773557555</v>
+        <v>0.77803023498339263</v>
       </c>
       <c r="AO15" s="2">
-        <v>0.80187116238742184</v>
+        <v>0.80247101963523892</v>
       </c>
       <c r="AP15" s="2">
-        <v>0.81317355184407158</v>
+        <v>0.81377340909188856</v>
       </c>
       <c r="AQ15" s="2">
-        <v>0.81619973491575204</v>
+        <v>0.81679959216356923</v>
       </c>
       <c r="AR15" s="2">
-        <v>0.8164047650146895</v>
+        <v>0.81700462226250647</v>
       </c>
       <c r="AS15" s="2">
-        <v>0.81640729643339238</v>
+        <v>0.81700715368120957</v>
       </c>
       <c r="AT15" s="2">
-        <v>0.81640733090732143</v>
+        <v>0.81700718815513851</v>
       </c>
       <c r="AU15" s="2">
-        <v>0.81640733158864576</v>
+        <v>0.81700718883646273</v>
       </c>
       <c r="AV15" s="2">
-        <v>0.81640733160736145</v>
+        <v>0.81700718885517853</v>
       </c>
       <c r="AX15" t="s">
         <v>39</v>
@@ -16386,51 +16346,51 @@
       </c>
       <c r="AZ15" s="2">
         <f>MIN(MAX($AK$15:$AV$22)/MAX(AK15, 0.01), 10)</f>
-        <v>1.518913437606634</v>
+        <v>1.5174222954750627</v>
       </c>
       <c r="BA15" s="2">
         <f t="shared" ref="BA15:BK15" si="8">MIN(MAX($AK$15:$AV$22)/MAX(AL15, 0.01), 10)</f>
-        <v>1.3661074151973642</v>
+        <v>1.3649010867085967</v>
       </c>
       <c r="BB15" s="2">
         <f t="shared" si="8"/>
-        <v>1.2580861133044308</v>
+        <v>1.2570629453031068</v>
       </c>
       <c r="BC15" s="2">
         <f t="shared" si="8"/>
-        <v>1.1926330714615809</v>
+        <v>1.191713557592154</v>
       </c>
       <c r="BD15" s="2">
         <f t="shared" si="8"/>
-        <v>1.1562819848587442</v>
+        <v>1.1554176494345798</v>
       </c>
       <c r="BE15" s="2">
         <f t="shared" si="8"/>
-        <v>1.1402106932077247</v>
+        <v>1.139370209062242</v>
       </c>
       <c r="BF15" s="2">
         <f t="shared" si="8"/>
-        <v>1.1359831908571016</v>
+        <v>1.1351489253200349</v>
       </c>
       <c r="BG15" s="2">
         <f t="shared" si="8"/>
-        <v>1.135697902534454</v>
+        <v>1.1348640558222072</v>
       </c>
       <c r="BH15" s="2">
         <f t="shared" si="8"/>
-        <v>1.1356943810973921</v>
+        <v>1.1348605395542242</v>
       </c>
       <c r="BI15" s="2">
         <f t="shared" si="8"/>
-        <v>1.1356943331411256</v>
+        <v>1.1348604916683522</v>
       </c>
       <c r="BJ15" s="2">
         <f t="shared" si="8"/>
-        <v>1.1356943321933435</v>
+        <v>1.1348604907219615</v>
       </c>
       <c r="BK15" s="2">
         <f t="shared" si="8"/>
-        <v>1.1356943321673083</v>
+        <v>1.1348604906959645</v>
       </c>
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.2">
@@ -16464,91 +16424,91 @@
         <v>400</v>
       </c>
       <c r="AK16" s="2">
-        <v>0.63468671867869719</v>
+        <v>0.6346868910713509</v>
       </c>
       <c r="AL16" s="2">
-        <v>0.71722593489776432</v>
+        <v>0.71722610729041814</v>
       </c>
       <c r="AM16" s="2">
-        <v>0.78767122019155211</v>
+        <v>0.78767139258420582</v>
       </c>
       <c r="AN16" s="2">
-        <v>0.8365646338832271</v>
+        <v>0.83656480627588103</v>
       </c>
       <c r="AO16" s="2">
-        <v>0.86610967048768195</v>
+        <v>0.86610984288033566</v>
       </c>
       <c r="AP16" s="2">
-        <v>0.87977246875587434</v>
+        <v>0.87977264114852805</v>
       </c>
       <c r="AQ16" s="2">
-        <v>0.88343064466545307</v>
+        <v>0.883430817058107</v>
       </c>
       <c r="AR16" s="2">
-        <v>0.88367849357310568</v>
+        <v>0.8836786659657595</v>
       </c>
       <c r="AS16" s="2">
-        <v>0.8836815536572763</v>
+        <v>0.88368172604993012</v>
       </c>
       <c r="AT16" s="2">
-        <v>0.88368159533079482</v>
+        <v>0.88368176772344853</v>
       </c>
       <c r="AU16" s="2">
-        <v>0.88368159615440856</v>
+        <v>0.88368176854706249</v>
       </c>
       <c r="AV16" s="2">
-        <v>0.88368159617703279</v>
+        <v>0.88368176856968672</v>
       </c>
       <c r="AY16">
         <v>400</v>
       </c>
       <c r="AZ16" s="2">
         <f t="shared" ref="AZ16:AZ22" si="9">MIN(MAX($AK$15:$AV$22)/MAX(AK16, 0.01), 10)</f>
-        <v>1.4608611649800338</v>
+        <v>1.460860768183228</v>
       </c>
       <c r="BA16" s="2">
         <f t="shared" ref="BA16:BA22" si="10">MIN(MAX($AK$15:$AV$22)/MAX(AL16, 0.01), 10)</f>
-        <v>1.292743519346496</v>
+        <v>1.2927432086223296</v>
       </c>
       <c r="BB16" s="2">
         <f t="shared" ref="BB16:BB22" si="11">MIN(MAX($AK$15:$AV$22)/MAX(AM16, 0.01), 10)</f>
-        <v>1.1771271508699219</v>
+        <v>1.1771268932395529</v>
       </c>
       <c r="BC16" s="2">
         <f t="shared" ref="BC16:BC22" si="12">MIN(MAX($AK$15:$AV$22)/MAX(AN16, 0.01), 10)</f>
-        <v>1.1083294006135807</v>
+        <v>1.1083291722178321</v>
       </c>
       <c r="BD16" s="2">
         <f t="shared" ref="BD16:BD22" si="13">MIN(MAX($AK$15:$AV$22)/MAX(AO16, 0.01), 10)</f>
-        <v>1.0705216796901049</v>
+        <v>1.0705214666108138</v>
       </c>
       <c r="BE16" s="2">
         <f t="shared" ref="BE16:BE22" si="14">MIN(MAX($AK$15:$AV$22)/MAX(AP16, 0.01), 10)</f>
-        <v>1.0538965609568305</v>
+        <v>1.0538963544443583</v>
       </c>
       <c r="BF16" s="2">
         <f t="shared" ref="BF16:BF22" si="15">MIN(MAX($AK$15:$AV$22)/MAX(AQ16, 0.01), 10)</f>
-        <v>1.0495325069886323</v>
+        <v>1.0495323021829033</v>
       </c>
       <c r="BG16" s="2">
         <f t="shared" ref="BG16:BG22" si="16">MIN(MAX($AK$15:$AV$22)/MAX(AR16, 0.01), 10)</f>
-        <v>1.0492381403300626</v>
+        <v>1.049237935639203</v>
       </c>
       <c r="BH16" s="2">
         <f t="shared" ref="BH16:BH22" si="17">MIN(MAX($AK$15:$AV$22)/MAX(AS16, 0.01), 10)</f>
-        <v>1.0492345069431133</v>
+        <v>1.0492343022536714</v>
       </c>
       <c r="BI16" s="2">
         <f t="shared" ref="BI16:BI22" si="18">MIN(MAX($AK$15:$AV$22)/MAX(AT16, 0.01), 10)</f>
-        <v>1.0492344574622892</v>
+        <v>1.0492342527728666</v>
       </c>
       <c r="BJ16" s="2">
         <f t="shared" ref="BJ16:BJ22" si="19">MIN(MAX($AK$15:$AV$22)/MAX(AU16, 0.01), 10)</f>
-        <v>1.0492344564843759</v>
+        <v>1.0492342517949536</v>
       </c>
       <c r="BK16" s="2">
         <f t="shared" ref="BK16:BK22" si="20">MIN(MAX($AK$15:$AV$22)/MAX(AV16, 0.01), 10)</f>
-        <v>1.0492344564575131</v>
+        <v>1.0492342517680908</v>
       </c>
     </row>
     <row r="17" spans="1:63" x14ac:dyDescent="0.2">
@@ -16581,91 +16541,91 @@
         <v>450</v>
       </c>
       <c r="AK17" s="2">
-        <v>0.62094125258970656</v>
+        <v>0.62094125259619604</v>
       </c>
       <c r="AL17" s="2">
-        <v>0.72017573577557903</v>
+        <v>0.72017573578206839</v>
       </c>
       <c r="AM17" s="2">
-        <v>0.80487003988014616</v>
+        <v>0.80487003988663552</v>
       </c>
       <c r="AN17" s="2">
-        <v>0.86365315972476686</v>
+        <v>0.86365315973125623</v>
       </c>
       <c r="AO17" s="2">
-        <v>0.89917429225368728</v>
+        <v>0.89917429226017698</v>
       </c>
       <c r="AP17" s="2">
-        <v>0.91560067461014705</v>
+        <v>0.91560067461663663</v>
       </c>
       <c r="AQ17" s="2">
-        <v>0.91999879240698434</v>
+        <v>0.91999879241347393</v>
       </c>
       <c r="AR17" s="2">
-        <v>0.92029677389246156</v>
+        <v>0.92029677389895115</v>
       </c>
       <c r="AS17" s="2">
-        <v>0.92030045294207119</v>
+        <v>0.92030045294856078</v>
       </c>
       <c r="AT17" s="2">
-        <v>0.92030050304492128</v>
+        <v>0.92030050305141098</v>
       </c>
       <c r="AU17" s="2">
-        <v>0.92030050403512842</v>
+        <v>0.9203005040416179</v>
       </c>
       <c r="AV17" s="2">
-        <v>0.92030050406232888</v>
+        <v>0.92030050406881847</v>
       </c>
       <c r="AY17">
         <v>450</v>
       </c>
       <c r="AZ17" s="2">
         <f t="shared" si="9"/>
-        <v>1.4931995182786906</v>
+        <v>1.4931995182630879</v>
       </c>
       <c r="BA17" s="2">
         <f t="shared" si="10"/>
-        <v>1.2874485117827505</v>
+        <v>1.287448511771152</v>
       </c>
       <c r="BB17" s="2">
         <f t="shared" si="11"/>
-        <v>1.1519737762687565</v>
+        <v>1.1519737762594708</v>
       </c>
       <c r="BC17" s="2">
         <f t="shared" si="12"/>
-        <v>1.0735665918732906</v>
+        <v>1.073566591865226</v>
       </c>
       <c r="BD17" s="2">
         <f t="shared" si="13"/>
-        <v>1.0311562365983717</v>
+        <v>1.0311562365909315</v>
       </c>
       <c r="BE17" s="2">
         <f t="shared" si="14"/>
-        <v>1.0126567235668582</v>
+        <v>1.0126567235596826</v>
       </c>
       <c r="BF17" s="2">
         <f t="shared" si="15"/>
-        <v>1.0078156481276679</v>
+        <v>1.0078156481205607</v>
       </c>
       <c r="BG17" s="2">
         <f t="shared" si="16"/>
-        <v>1.0074893290397</v>
+        <v>1.0074893290325975</v>
       </c>
       <c r="BH17" s="2">
         <f t="shared" si="17"/>
-        <v>1.0074853014384848</v>
+        <v>1.0074853014313823</v>
       </c>
       <c r="BI17" s="2">
         <f t="shared" si="18"/>
-        <v>1.007485246589134</v>
+        <v>1.0074852465820314</v>
       </c>
       <c r="BJ17" s="2">
         <f t="shared" si="19"/>
-        <v>1.0074852455051195</v>
+        <v>1.0074852454980172</v>
       </c>
       <c r="BK17" s="2">
         <f t="shared" si="20"/>
-        <v>1.0074852454753422</v>
+        <v>1.0074852454682397</v>
       </c>
     </row>
     <row r="18" spans="1:63" x14ac:dyDescent="0.2">
@@ -16699,55 +16659,55 @@
         <v>500</v>
       </c>
       <c r="AK18" s="2">
-        <v>0.5887628707045095</v>
+        <v>0.58876287070451139</v>
       </c>
       <c r="AL18" s="2">
-        <v>0.7009476776194199</v>
+        <v>0.70094767761942167</v>
       </c>
       <c r="AM18" s="2">
-        <v>0.79669477930953647</v>
+        <v>0.79669477930953825</v>
       </c>
       <c r="AN18" s="2">
-        <v>0.86314922879029687</v>
+        <v>0.86314922879029865</v>
       </c>
       <c r="AO18" s="2">
-        <v>0.90330594917843077</v>
+        <v>0.90330594917843254</v>
       </c>
       <c r="AP18" s="2">
-        <v>0.92187601145726861</v>
+        <v>0.92187601145727038</v>
       </c>
       <c r="AQ18" s="2">
-        <v>0.92684809353989539</v>
+        <v>0.92684809353989717</v>
       </c>
       <c r="AR18" s="2">
-        <v>0.9271849622808741</v>
+        <v>0.92718496228087588</v>
       </c>
       <c r="AS18" s="2">
-        <v>0.92718912145475008</v>
+        <v>0.92718912145475185</v>
       </c>
       <c r="AT18" s="2">
-        <v>0.92718917809613566</v>
+        <v>0.92718917809613743</v>
       </c>
       <c r="AU18" s="2">
-        <v>0.92718917921556698</v>
+        <v>0.92718917921556876</v>
       </c>
       <c r="AV18" s="2">
-        <v>0.92718917924631661</v>
+        <v>0.92718917924631838</v>
       </c>
       <c r="AY18">
         <v>500</v>
       </c>
       <c r="AZ18" s="2">
         <f t="shared" si="9"/>
-        <v>1.5748091895415357</v>
+        <v>1.5748091895415337</v>
       </c>
       <c r="BA18" s="2">
         <f t="shared" si="10"/>
-        <v>1.3227651775597076</v>
+        <v>1.3227651775597067</v>
       </c>
       <c r="BB18" s="2">
         <f t="shared" si="11"/>
-        <v>1.1637947220513662</v>
+        <v>1.163794722051366</v>
       </c>
       <c r="BC18" s="2">
         <f t="shared" si="12"/>
@@ -16856,51 +16816,51 @@
       </c>
       <c r="AZ19" s="2">
         <f t="shared" si="9"/>
-        <v>1.734370394872357</v>
+        <v>1.7343703948723603</v>
       </c>
       <c r="BA19" s="2">
         <f t="shared" si="10"/>
-        <v>1.3960080399669661</v>
+        <v>1.3960080399669688</v>
       </c>
       <c r="BB19" s="2">
         <f t="shared" si="11"/>
-        <v>1.1967423847420227</v>
+        <v>1.1967423847420249</v>
       </c>
       <c r="BC19" s="2">
         <f t="shared" si="12"/>
-        <v>1.0888680309206309</v>
+        <v>1.0888680309206329</v>
       </c>
       <c r="BD19" s="2">
         <f t="shared" si="13"/>
-        <v>1.0326218527539714</v>
+        <v>1.0326218527539734</v>
       </c>
       <c r="BE19" s="2">
         <f t="shared" si="14"/>
-        <v>1.0085304596578684</v>
+        <v>1.0085304596578701</v>
       </c>
       <c r="BF19" s="2">
         <f t="shared" si="15"/>
-        <v>1.0022696555733239</v>
+        <v>1.0022696555733259</v>
       </c>
       <c r="BG19" s="2">
         <f t="shared" si="16"/>
-        <v>1.0018482837641451</v>
+        <v>1.0018482837641469</v>
       </c>
       <c r="BH19" s="2">
         <f t="shared" si="17"/>
-        <v>1.0018430834813412</v>
+        <v>1.0018430834813432</v>
       </c>
       <c r="BI19" s="2">
         <f t="shared" si="18"/>
-        <v>1.001843012662067</v>
+        <v>1.0018430126620688</v>
       </c>
       <c r="BJ19" s="2">
         <f t="shared" si="19"/>
-        <v>1.001843011262431</v>
+        <v>1.0018430112624328</v>
       </c>
       <c r="BK19" s="2">
         <f t="shared" si="20"/>
-        <v>1.0018430112239838</v>
+        <v>1.0018430112239858</v>
       </c>
     </row>
     <row r="20" spans="1:63" x14ac:dyDescent="0.2">
@@ -16974,51 +16934,51 @@
       </c>
       <c r="AZ20" s="2">
         <f t="shared" si="9"/>
-        <v>2.1835706596309983</v>
+        <v>2.1835706596310027</v>
       </c>
       <c r="BA20" s="2">
         <f t="shared" si="10"/>
-        <v>1.5919449125867451</v>
+        <v>1.591944912586748</v>
       </c>
       <c r="BB20" s="2">
         <f t="shared" si="11"/>
-        <v>1.2929559323562265</v>
+        <v>1.2929559323562292</v>
       </c>
       <c r="BC20" s="2">
         <f t="shared" si="12"/>
-        <v>1.1438500824655358</v>
+        <v>1.143850082465538</v>
       </c>
       <c r="BD20" s="2">
         <f t="shared" si="13"/>
-        <v>1.0693326377877455</v>
+        <v>1.0693326377877475</v>
       </c>
       <c r="BE20" s="2">
         <f t="shared" si="14"/>
-        <v>1.0380598663864344</v>
+        <v>1.0380598663864364</v>
       </c>
       <c r="BF20" s="2">
         <f t="shared" si="15"/>
-        <v>1.0299946974974397</v>
+        <v>1.0299946974974417</v>
       </c>
       <c r="BG20" s="2">
         <f t="shared" si="16"/>
-        <v>1.0294527965291445</v>
+        <v>1.0294527965291465</v>
       </c>
       <c r="BH20" s="2">
         <f t="shared" si="17"/>
-        <v>1.0294461094737952</v>
+        <v>1.0294461094737972</v>
       </c>
       <c r="BI20" s="2">
         <f t="shared" si="18"/>
-        <v>1.0294460184072525</v>
+        <v>1.0294460184072545</v>
       </c>
       <c r="BJ20" s="2">
         <f t="shared" si="19"/>
-        <v>1.0294460166074599</v>
+        <v>1.0294460166074619</v>
       </c>
       <c r="BK20" s="2">
         <f t="shared" si="20"/>
-        <v>1.0294460165580206</v>
+        <v>1.0294460165580224</v>
       </c>
     </row>
     <row r="21" spans="1:63" x14ac:dyDescent="0.2">
@@ -17087,51 +17047,51 @@
       </c>
       <c r="AZ21" s="2">
         <f t="shared" si="9"/>
-        <v>3.8060312800872587</v>
+        <v>3.8060312800872658</v>
       </c>
       <c r="BA21" s="2">
         <f t="shared" si="10"/>
-        <v>2.0922563372466487</v>
+        <v>2.0922563372466527</v>
       </c>
       <c r="BB21" s="2">
         <f t="shared" si="11"/>
-        <v>1.5113536025487333</v>
+        <v>1.5113536025487362</v>
       </c>
       <c r="BC21" s="2">
         <f t="shared" si="12"/>
-        <v>1.2671674165088518</v>
+        <v>1.2671674165088542</v>
       </c>
       <c r="BD21" s="2">
         <f t="shared" si="13"/>
-        <v>1.1544563177708247</v>
+        <v>1.1544563177708269</v>
       </c>
       <c r="BE21" s="2">
         <f t="shared" si="14"/>
-        <v>1.1088464089247521</v>
+        <v>1.1088464089247541</v>
       </c>
       <c r="BF21" s="2">
         <f t="shared" si="15"/>
-        <v>1.097239725165384</v>
+        <v>1.0972397251653863</v>
       </c>
       <c r="BG21" s="2">
         <f t="shared" si="16"/>
-        <v>1.0964621313137028</v>
+        <v>1.0964621313137048</v>
       </c>
       <c r="BH21" s="2">
         <f t="shared" si="17"/>
-        <v>1.0964525375836207</v>
+        <v>1.0964525375836227</v>
       </c>
       <c r="BI21" s="2">
         <f t="shared" si="18"/>
-        <v>1.096452406933313</v>
+        <v>1.0964524069333152</v>
       </c>
       <c r="BJ21" s="2">
         <f t="shared" si="19"/>
-        <v>1.0964524043512081</v>
+        <v>1.0964524043512103</v>
       </c>
       <c r="BK21" s="2">
         <f t="shared" si="20"/>
-        <v>1.096452404280279</v>
+        <v>1.0964524042802812</v>
       </c>
     </row>
     <row r="22" spans="1:63" x14ac:dyDescent="0.2">
@@ -17208,47 +17168,47 @@
       </c>
       <c r="BA22" s="2">
         <f t="shared" si="10"/>
-        <v>3.7141814258783787</v>
+        <v>3.7141814258783858</v>
       </c>
       <c r="BB22" s="2">
         <f t="shared" si="11"/>
-        <v>1.9791286504621439</v>
+        <v>1.9791286504621477</v>
       </c>
       <c r="BC22" s="2">
         <f t="shared" si="12"/>
-        <v>1.49447176884499</v>
+        <v>1.4944717688449929</v>
       </c>
       <c r="BD22" s="2">
         <f t="shared" si="13"/>
-        <v>1.3018304894806829</v>
+        <v>1.3018304894806854</v>
       </c>
       <c r="BE22" s="2">
         <f t="shared" si="14"/>
-        <v>1.2285943762718652</v>
+        <v>1.2285943762718676</v>
       </c>
       <c r="BF22" s="2">
         <f t="shared" si="15"/>
-        <v>1.2103633323872243</v>
+        <v>1.2103633323872267</v>
       </c>
       <c r="BG22" s="2">
         <f t="shared" si="16"/>
-        <v>1.2091476929278646</v>
+        <v>1.2091476929278668</v>
       </c>
       <c r="BH22" s="2">
         <f t="shared" si="17"/>
-        <v>1.2091326992091311</v>
+        <v>1.2091326992091334</v>
       </c>
       <c r="BI22" s="2">
         <f t="shared" si="18"/>
-        <v>1.209132495020905</v>
+        <v>1.2091324950209075</v>
       </c>
       <c r="BJ22" s="2">
         <f t="shared" si="19"/>
-        <v>1.2091324909854353</v>
+        <v>1.2091324909854375</v>
       </c>
       <c r="BK22" s="2">
         <f t="shared" si="20"/>
-        <v>1.2091324908745835</v>
+        <v>1.209132490874586</v>
       </c>
     </row>
     <row r="23" spans="1:63" x14ac:dyDescent="0.2">
@@ -17502,51 +17462,51 @@
       </c>
       <c r="AZ26" s="2">
         <f>AZ15+AZ37</f>
-        <v>3.5215980595184355</v>
+        <v>5.2506422681050928</v>
       </c>
       <c r="BA26" s="2">
         <f t="shared" ref="BA26:BK26" si="21">BA15+BA37</f>
-        <v>3.4345702704382655</v>
+        <v>5.2870952488131593</v>
       </c>
       <c r="BB26" s="2">
         <f t="shared" si="21"/>
-        <v>3.3748022571715079</v>
+        <v>5.1792571074076701</v>
       </c>
       <c r="BC26" s="2">
         <f t="shared" si="21"/>
-        <v>3.3376986291002519</v>
+        <v>5.1139077196967166</v>
       </c>
       <c r="BD26" s="2">
         <f t="shared" si="21"/>
-        <v>3.3157697798377357</v>
+        <v>5.0776118115391426</v>
       </c>
       <c r="BE26" s="2">
         <f t="shared" si="21"/>
-        <v>3.3052401647758822</v>
+        <v>5.0615643711668046</v>
       </c>
       <c r="BF26" s="2">
         <f t="shared" si="21"/>
-        <v>3.3021855589329601</v>
+        <v>5.0573430874245977</v>
       </c>
       <c r="BG26" s="2">
         <f t="shared" si="21"/>
-        <v>3.3019572469332479</v>
+        <v>5.0570582179267696</v>
       </c>
       <c r="BH26" s="2">
         <f t="shared" si="21"/>
-        <v>3.3019543775164628</v>
+        <v>5.057054701658787</v>
       </c>
       <c r="BI26" s="2">
         <f t="shared" si="21"/>
-        <v>3.30195433875127</v>
+        <v>5.0570546537729149</v>
       </c>
       <c r="BJ26" s="2">
         <f t="shared" si="21"/>
-        <v>3.3019543379913676</v>
+        <v>5.0570546528265243</v>
       </c>
       <c r="BK26" s="2">
         <f t="shared" si="21"/>
-        <v>3.3019543379706584</v>
+        <v>5.0570546528005274</v>
       </c>
     </row>
     <row r="27" spans="1:63" x14ac:dyDescent="0.2">
@@ -17607,51 +17567,51 @@
       </c>
       <c r="AZ27" s="2">
         <f t="shared" ref="AZ27:BK27" si="22">AZ16+AZ38</f>
-        <v>3.1218130253665706</v>
+        <v>4.5491231599538029</v>
       </c>
       <c r="BA27" s="2">
         <f t="shared" si="22"/>
-        <v>3.008394103234652</v>
+        <v>5.2149373707268927</v>
       </c>
       <c r="BB27" s="2">
         <f t="shared" si="22"/>
-        <v>2.9329092366097784</v>
+        <v>5.0993210553441157</v>
       </c>
       <c r="BC27" s="2">
         <f t="shared" si="22"/>
-        <v>2.8876915647157926</v>
+        <v>5.0305233343223952</v>
       </c>
       <c r="BD27" s="2">
         <f t="shared" si="22"/>
-        <v>2.8618804284581723</v>
+        <v>4.9927156287153771</v>
       </c>
       <c r="BE27" s="2">
         <f t="shared" si="22"/>
-        <v>2.8498650587602885</v>
+        <v>4.9760905165489211</v>
       </c>
       <c r="BF27" s="2">
         <f t="shared" si="22"/>
-        <v>2.8464766671247839</v>
+        <v>4.9717264642874657</v>
       </c>
       <c r="BG27" s="2">
         <f t="shared" si="22"/>
-        <v>2.8462296957303894</v>
+        <v>4.971432097743766</v>
       </c>
       <c r="BH27" s="2">
         <f t="shared" si="22"/>
-        <v>2.8462266047209384</v>
+        <v>4.971428464358234</v>
       </c>
       <c r="BI27" s="2">
         <f t="shared" si="22"/>
-        <v>2.8462265628856311</v>
+        <v>4.9714284148774297</v>
       </c>
       <c r="BJ27" s="2">
         <f t="shared" si="22"/>
-        <v>2.846226562064003</v>
+        <v>4.9714284138995168</v>
       </c>
       <c r="BK27" s="2">
         <f t="shared" si="22"/>
-        <v>2.8462265620415712</v>
+        <v>4.9714284138726539</v>
       </c>
     </row>
     <row r="28" spans="1:63" x14ac:dyDescent="0.2">
@@ -17709,51 +17669,51 @@
       </c>
       <c r="AZ28" s="2">
         <f t="shared" ref="AZ28:BK28" si="23">AZ17+AZ39</f>
-        <v>2.9495865724176866</v>
+        <v>4.0618908553068529</v>
       </c>
       <c r="BA28" s="2">
         <f t="shared" si="23"/>
-        <v>2.7944873600079543</v>
+        <v>4.653723174962539</v>
       </c>
       <c r="BB28" s="2">
         <f t="shared" si="23"/>
-        <v>2.6962903150204998</v>
+        <v>5.0741679383640337</v>
       </c>
       <c r="BC28" s="2">
         <f t="shared" si="23"/>
-        <v>2.6398321063860051</v>
+        <v>4.9957607539697886</v>
       </c>
       <c r="BD28" s="2">
         <f t="shared" si="23"/>
-        <v>2.6086015158081528</v>
+        <v>4.9533503986954948</v>
       </c>
       <c r="BE28" s="2">
         <f t="shared" si="23"/>
-        <v>2.5944002226806453</v>
+        <v>4.934850885664245</v>
       </c>
       <c r="BF28" s="2">
         <f t="shared" si="23"/>
-        <v>2.5904690403695403</v>
+        <v>4.9300098102251235</v>
       </c>
       <c r="BG28" s="2">
         <f t="shared" si="23"/>
-        <v>2.5901869231224897</v>
+        <v>4.9296834911371601</v>
       </c>
       <c r="BH28" s="2">
         <f t="shared" si="23"/>
-        <v>2.5901834013549685</v>
+        <v>4.9296794635359449</v>
       </c>
       <c r="BI28" s="2">
         <f t="shared" si="23"/>
-        <v>2.5901833536360019</v>
+        <v>4.929679408686594</v>
       </c>
       <c r="BJ28" s="2">
         <f t="shared" si="23"/>
-        <v>2.5901833526977436</v>
+        <v>4.9296794076025803</v>
       </c>
       <c r="BK28" s="2">
         <f t="shared" si="23"/>
-        <v>2.5901833526720983</v>
+        <v>4.9296794075728023</v>
       </c>
     </row>
     <row r="29" spans="1:63" x14ac:dyDescent="0.2">
@@ -17761,7 +17721,7 @@
         <v>14</v>
       </c>
       <c r="B29">
-        <f>SUMPRODUCT(Wt,Vul_cap,Vul_harv,Surv_uf)</f>
+        <f>SUMPRODUCT(Wt,Vul_harv,Surv_uf)</f>
         <v>16.357315624737925</v>
       </c>
       <c r="E29">
@@ -17827,51 +17787,51 @@
       </c>
       <c r="AZ29" s="2">
         <f t="shared" ref="AZ29:BK29" si="24">AZ18+AZ40</f>
-        <v>2.9359982884594231</v>
+        <v>3.8469774474848668</v>
       </c>
       <c r="BA29" s="2">
         <f t="shared" si="24"/>
-        <v>2.7340736242863541</v>
+        <v>4.3004458069595088</v>
       </c>
       <c r="BB29" s="2">
         <f t="shared" si="24"/>
-        <v>2.6121154932667152</v>
+        <v>5.0859888841559293</v>
       </c>
       <c r="BC29" s="2">
         <f t="shared" si="24"/>
-        <v>2.5443572525641844</v>
+        <v>4.996387532520675</v>
       </c>
       <c r="BD29" s="2">
         <f t="shared" si="24"/>
-        <v>2.5077439196058853</v>
+        <v>4.9486339636907344</v>
       </c>
       <c r="BE29" s="2">
         <f t="shared" si="24"/>
-        <v>2.491353159662749</v>
+        <v>4.9279575920268242</v>
       </c>
       <c r="BF29" s="2">
         <f t="shared" si="24"/>
-        <v>2.486865144435662</v>
+        <v>4.9225621681551752</v>
       </c>
       <c r="BG29" s="2">
         <f t="shared" si="24"/>
-        <v>2.4865457693128934</v>
+        <v>4.922198710242867</v>
       </c>
       <c r="BH29" s="2">
         <f t="shared" si="24"/>
-        <v>2.4865417879766305</v>
+        <v>4.9221942244344206</v>
       </c>
       <c r="BI29" s="2">
         <f t="shared" si="24"/>
-        <v>2.4865417339984672</v>
+        <v>4.9221941633450657</v>
       </c>
       <c r="BJ29" s="2">
         <f t="shared" si="24"/>
-        <v>2.4865417329364927</v>
+        <v>4.9221941621377274</v>
       </c>
       <c r="BK29" s="2">
         <f t="shared" si="24"/>
-        <v>2.4865417329074484</v>
+        <v>4.9221941621045628</v>
       </c>
     </row>
     <row r="30" spans="1:63" x14ac:dyDescent="0.2">
@@ -17879,7 +17839,7 @@
         <v>15</v>
       </c>
       <c r="B30">
-        <f>SUMPRODUCT(Wt,Vul_harv,Vul_cap,Surv_f)</f>
+        <f>SUMPRODUCT(Wt,Vul_harv,Surv_f)</f>
         <v>4.6274175138224045</v>
       </c>
       <c r="E30">
@@ -17945,51 +17905,51 @@
       </c>
       <c r="AZ30" s="2">
         <f t="shared" ref="AZ30:BK30" si="25">AZ19+AZ41</f>
-        <v>3.001183664882058</v>
+        <v>3.7015948337166718</v>
       </c>
       <c r="BA30" s="2">
         <f t="shared" si="25"/>
-        <v>2.7130995587371105</v>
+        <v>3.9740592404714139</v>
       </c>
       <c r="BB30" s="2">
         <f t="shared" si="25"/>
-        <v>2.5511425231522855</v>
+        <v>4.8439460301903363</v>
       </c>
       <c r="BC30" s="2">
         <f t="shared" si="25"/>
-        <v>2.4653579076835612</v>
+        <v>5.0110621930251957</v>
       </c>
       <c r="BD30" s="2">
         <f t="shared" si="25"/>
-        <v>2.4203983398443123</v>
+        <v>4.9548160148585367</v>
       </c>
       <c r="BE30" s="2">
         <f t="shared" si="25"/>
-        <v>2.4006525806826762</v>
+        <v>4.9307246217624332</v>
       </c>
       <c r="BF30" s="2">
         <f t="shared" si="25"/>
-        <v>2.3953121588299053</v>
+        <v>4.9244638176778892</v>
       </c>
       <c r="BG30" s="2">
         <f t="shared" si="25"/>
-        <v>2.3949355024379377</v>
+        <v>4.92404244586871</v>
       </c>
       <c r="BH30" s="2">
         <f t="shared" si="25"/>
-        <v>2.3949308138682124</v>
+        <v>4.9240372455859056</v>
       </c>
       <c r="BI30" s="2">
         <f t="shared" si="25"/>
-        <v>2.3949307502621995</v>
+        <v>4.9240371747666316</v>
       </c>
       <c r="BJ30" s="2">
         <f t="shared" si="25"/>
-        <v>2.3949307490100136</v>
+        <v>4.9240371733669956</v>
       </c>
       <c r="BK30" s="2">
         <f t="shared" si="25"/>
-        <v>2.3949307489757472</v>
+        <v>4.9240371733285482</v>
       </c>
     </row>
     <row r="31" spans="1:63" x14ac:dyDescent="0.2">
@@ -18063,51 +18023,51 @@
       </c>
       <c r="AZ31" s="2">
         <f t="shared" ref="AZ31:BK31" si="26">AZ20+AZ42</f>
-        <v>3.3511840969691971</v>
+        <v>3.7988749957496526</v>
       </c>
       <c r="BA31" s="2">
         <f t="shared" si="26"/>
-        <v>2.8118303592779945</v>
+        <v>3.7088041211896137</v>
       </c>
       <c r="BB31" s="2">
         <f t="shared" si="26"/>
-        <v>2.5519607854860134</v>
+        <v>4.2877050748209022</v>
       </c>
       <c r="BC31" s="2">
         <f t="shared" si="26"/>
-        <v>2.4261512689917759</v>
+        <v>5.0660442445701008</v>
       </c>
       <c r="BD31" s="2">
         <f t="shared" si="26"/>
-        <v>2.3635758080246223</v>
+        <v>4.9915267998923101</v>
       </c>
       <c r="BE31" s="2">
         <f t="shared" si="26"/>
-        <v>2.3369080417134942</v>
+        <v>4.9602540284909988</v>
       </c>
       <c r="BF31" s="2">
         <f t="shared" si="26"/>
-        <v>2.329818691276512</v>
+        <v>4.9521888596020043</v>
       </c>
       <c r="BG31" s="2">
         <f t="shared" si="26"/>
-        <v>2.3293242034917103</v>
+        <v>4.9516469586337095</v>
       </c>
       <c r="BH31" s="2">
         <f t="shared" si="26"/>
-        <v>2.3293180590244655</v>
+        <v>4.9516402715783601</v>
       </c>
       <c r="BI31" s="2">
         <f t="shared" si="26"/>
-        <v>2.3293179756064095</v>
+        <v>4.9516401805118173</v>
       </c>
       <c r="BJ31" s="2">
         <f t="shared" si="26"/>
-        <v>2.3293179739629633</v>
+        <v>4.951640178712025</v>
       </c>
       <c r="BK31" s="2">
         <f t="shared" si="26"/>
-        <v>2.3293179739179561</v>
+        <v>4.9516401786625854</v>
       </c>
     </row>
     <row r="32" spans="1:63" x14ac:dyDescent="0.2">
@@ -18122,7 +18082,7 @@
         <v>0.9</v>
       </c>
       <c r="F32">
-        <v>0.6286960996857357</v>
+        <v>0.62869609968573581</v>
       </c>
       <c r="G32">
         <v>4.7042487700094962E-2</v>
@@ -18180,51 +18140,51 @@
       </c>
       <c r="AZ32" s="2">
         <f t="shared" ref="AZ32:BK32" si="27">AZ21+AZ43</f>
-        <v>4.8828047140024804</v>
+        <v>5.0833222277531922</v>
       </c>
       <c r="BA32" s="2">
         <f t="shared" si="27"/>
-        <v>3.2256609966187613</v>
+        <v>3.7660921332439026</v>
       </c>
       <c r="BB32" s="2">
         <f t="shared" si="27"/>
-        <v>2.6877067057719484</v>
+        <v>3.8793513851878068</v>
       </c>
       <c r="BC32" s="2">
         <f t="shared" si="27"/>
-        <v>2.4693282346539549</v>
+        <v>4.8874047409483907</v>
       </c>
       <c r="BD32" s="2">
         <f t="shared" si="27"/>
-        <v>2.3699140894226236</v>
+        <v>5.07665047987539</v>
       </c>
       <c r="BE32" s="2">
         <f t="shared" si="27"/>
-        <v>2.3294439943453122</v>
+        <v>5.0310405710293171</v>
       </c>
       <c r="BF32" s="2">
         <f t="shared" si="27"/>
-        <v>2.31892733926201</v>
+        <v>5.0194338872699493</v>
       </c>
       <c r="BG32" s="2">
         <f t="shared" si="27"/>
-        <v>2.3182027157192548</v>
+        <v>5.0186562934182675</v>
       </c>
       <c r="BH32" s="2">
         <f t="shared" si="27"/>
-        <v>2.3181937281762597</v>
+        <v>5.0186466996881851</v>
       </c>
       <c r="BI32" s="2">
         <f t="shared" si="27"/>
-        <v>2.3181936060709489</v>
+        <v>5.0186465690378785</v>
       </c>
       <c r="BJ32" s="2">
         <f t="shared" si="27"/>
-        <v>2.3181936036635169</v>
+        <v>5.0186465664557733</v>
       </c>
       <c r="BK32" s="2">
         <f t="shared" si="27"/>
-        <v>2.3181936035975399</v>
+        <v>5.0186465663848443</v>
       </c>
     </row>
     <row r="33" spans="1:63" x14ac:dyDescent="0.2">
@@ -18233,7 +18193,7 @@
       </c>
       <c r="B33">
         <f>SUMPRODUCT(Vul_cap,Surv_f,Memorable)*U</f>
-        <v>0.40755085979582245</v>
+        <v>2.7255757426047217E-3</v>
       </c>
       <c r="E33">
         <v>0.95</v>
@@ -18301,47 +18261,47 @@
       </c>
       <c r="BA33" s="2">
         <f t="shared" si="28"/>
-        <v>4.7755429640351448</v>
+        <v>5.0167089705457908</v>
       </c>
       <c r="BB33" s="2">
         <f t="shared" si="28"/>
-        <v>3.0892528552190277</v>
+        <v>3.8217214552132361</v>
       </c>
       <c r="BC33" s="2">
         <f t="shared" si="28"/>
-        <v>2.6342716679114115</v>
+        <v>4.3114599300173726</v>
       </c>
       <c r="BD33" s="2">
         <f t="shared" si="28"/>
-        <v>2.4570291938939173</v>
+        <v>5.224024651585248</v>
       </c>
       <c r="BE33" s="2">
         <f t="shared" si="28"/>
-        <v>2.3897653569520729</v>
+        <v>5.15078853837643</v>
       </c>
       <c r="BF33" s="2">
         <f t="shared" si="28"/>
-        <v>2.3728023257862079</v>
+        <v>5.13255749449179</v>
       </c>
       <c r="BG33" s="2">
         <f t="shared" si="28"/>
-        <v>2.3716483186757435</v>
+        <v>5.1313418550324297</v>
       </c>
       <c r="BH33" s="2">
         <f t="shared" si="28"/>
-        <v>2.3716340302785355</v>
+        <v>5.1313268613136964</v>
       </c>
       <c r="BI33" s="2">
         <f t="shared" si="28"/>
-        <v>2.3716338360327369</v>
+        <v>5.1313266571254701</v>
       </c>
       <c r="BJ33" s="2">
         <f t="shared" si="28"/>
-        <v>2.3716338322005051</v>
+        <v>5.1313266530900004</v>
       </c>
       <c r="BK33" s="2">
         <f t="shared" si="28"/>
-        <v>2.3716338320954158</v>
+        <v>5.1313266529791486</v>
       </c>
     </row>
     <row r="34" spans="1:63" x14ac:dyDescent="0.2">
@@ -18428,7 +18388,7 @@
       <c r="AI36" s="2"/>
       <c r="AJ36" s="2">
         <f>Mem_Catch</f>
-        <v>0.40755085979582245</v>
+        <v>2.7255757426047217E-3</v>
       </c>
       <c r="AK36" s="2">
         <v>700</v>
@@ -18508,7 +18468,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>380</v>
+        <v>890</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
@@ -18541,40 +18501,40 @@
       </c>
       <c r="AK37" s="2">
         <f t="dataTable" ref="AK37:AV44" dt2D="1" dtr="1" r1="B17" r2="B15" ca="1"/>
-        <v>0.28349651217166022</v>
+        <v>1.0506196235046394E-2</v>
       </c>
       <c r="AL37" s="2">
-        <v>0.27448117033056069</v>
+        <v>8.0169261140029379E-3</v>
       </c>
       <c r="AM37" s="2">
-        <v>0.2682240162134224</v>
+        <v>5.6668198438419677E-3</v>
       </c>
       <c r="AN37" s="2">
-        <v>0.26467913918528918</v>
+        <v>3.7066677176749233E-3</v>
       </c>
       <c r="AO37" s="2">
-        <v>0.26291146753035444</v>
+        <v>2.2466293575481551E-3</v>
       </c>
       <c r="AP37" s="2">
-        <v>0.26223851118321473</v>
+        <v>1.5850820925913099E-3</v>
       </c>
       <c r="AQ37" s="2">
-        <v>0.26209652138646983</v>
+        <v>1.4432175365249229E-3</v>
       </c>
       <c r="AR37" s="2">
-        <v>0.26208962780002948</v>
+        <v>1.436325189173384E-3</v>
       </c>
       <c r="AS37" s="2">
-        <v>0.26208954891395303</v>
+        <v>1.4362463201621142E-3</v>
       </c>
       <c r="AT37" s="2">
-        <v>0.26208954780195159</v>
+        <v>1.4362452085122015E-3</v>
       </c>
       <c r="AU37" s="2">
-        <v>0.26208954777922056</v>
+        <v>1.436245185791455E-3</v>
       </c>
       <c r="AV37" s="2">
-        <v>0.26208954777857618</v>
+        <v>1.4362451851474692E-3</v>
       </c>
       <c r="AX37" t="s">
         <v>39</v>
@@ -18584,51 +18544,51 @@
       </c>
       <c r="AZ37">
         <f>MIN(MAX($AK$37:$AV$44)/MAX(AK37, 0.01), 10)</f>
-        <v>2.0026846219118015</v>
+        <v>3.7332199726300304</v>
       </c>
       <c r="BA37">
         <f t="shared" ref="BA37:BK37" si="29">MIN(MAX($AK$37:$AV$44)/MAX(AL37, 0.01), 10)</f>
-        <v>2.0684628552409015</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BB37">
         <f t="shared" si="29"/>
-        <v>2.1167161438670772</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BC37">
         <f t="shared" si="29"/>
-        <v>2.145065557638671</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BD37">
         <f t="shared" si="29"/>
-        <v>2.1594877949789915</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BE37">
         <f t="shared" si="29"/>
-        <v>2.1650294715681575</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BF37">
         <f t="shared" si="29"/>
-        <v>2.1662023680758584</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BG37">
         <f t="shared" si="29"/>
-        <v>2.1662593443987941</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BH37">
         <f t="shared" si="29"/>
-        <v>2.166259996419071</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BI37">
         <f t="shared" si="29"/>
-        <v>2.1662600056101442</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BJ37">
         <f t="shared" si="29"/>
-        <v>2.1662600057980241</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BK37">
         <f t="shared" si="29"/>
-        <v>2.1662600058033501</v>
+        <v>3.9221941621045628</v>
       </c>
     </row>
     <row r="38" spans="1:63" x14ac:dyDescent="0.2">
@@ -18637,7 +18597,7 @@
       </c>
       <c r="B38">
         <f>B37*0.01</f>
-        <v>3.8000000000000003</v>
+        <v>8.9</v>
       </c>
       <c r="F38">
         <f>Yield</f>
@@ -18671,91 +18631,91 @@
         <v>400</v>
       </c>
       <c r="AK38" s="2">
-        <v>0.34182453979110994</v>
+        <v>1.270032680045647E-2</v>
       </c>
       <c r="AL38" s="2">
-        <v>0.33092641976382065</v>
+        <v>9.6911935875811511E-3</v>
       </c>
       <c r="AM38" s="2">
-        <v>0.32336251172797109</v>
+        <v>6.8502874233423178E-3</v>
       </c>
       <c r="AN38" s="2">
-        <v>0.31907731699930775</v>
+        <v>4.4807740405741429E-3</v>
       </c>
       <c r="AO38" s="2">
-        <v>0.31694048201247527</v>
+        <v>2.7158189702550465E-3</v>
       </c>
       <c r="AP38" s="2">
-        <v>0.31612698440212172</v>
+        <v>1.9161131327728469E-3</v>
       </c>
       <c r="AQ38" s="2">
-        <v>0.31595534123263908</v>
+        <v>1.7446213594291687E-3</v>
       </c>
       <c r="AR38" s="2">
-        <v>0.3159470079787513</v>
+        <v>1.7362896034036329E-3</v>
       </c>
       <c r="AS38" s="2">
-        <v>0.31594691261798263</v>
+        <v>1.7361942632638583E-3</v>
       </c>
       <c r="AT38" s="2">
-        <v>0.31594691127374891</v>
+        <v>1.7361929194552269E-3</v>
       </c>
       <c r="AU38" s="2">
-        <v>0.31594691124627078</v>
+        <v>1.7361928919894438E-3</v>
       </c>
       <c r="AV38" s="2">
-        <v>0.31594691124549179</v>
+        <v>1.7361928912109682E-3</v>
       </c>
       <c r="AY38" s="2">
         <v>400</v>
       </c>
       <c r="AZ38">
         <f t="shared" ref="AZ38:AZ44" si="30">MIN(MAX($AK$37:$AV$44)/MAX(AK38, 0.01), 10)</f>
-        <v>1.6609518603865367</v>
+        <v>3.0882623917705745</v>
       </c>
       <c r="BA38">
         <f t="shared" ref="BA38:BA44" si="31">MIN(MAX($AK$37:$AV$44)/MAX(AL38, 0.01), 10)</f>
-        <v>1.7156505838881557</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BB38">
         <f t="shared" ref="BB38:BB44" si="32">MIN(MAX($AK$37:$AV$44)/MAX(AM38, 0.01), 10)</f>
-        <v>1.7557820857398563</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BC38">
         <f t="shared" ref="BC38:BC44" si="33">MIN(MAX($AK$37:$AV$44)/MAX(AN38, 0.01), 10)</f>
-        <v>1.7793621641022122</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BD38">
         <f t="shared" ref="BD38:BD44" si="34">MIN(MAX($AK$37:$AV$44)/MAX(AO38, 0.01), 10)</f>
-        <v>1.7913587487680671</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BE38">
         <f t="shared" ref="BE38:BE44" si="35">MIN(MAX($AK$37:$AV$44)/MAX(AP38, 0.01), 10)</f>
-        <v>1.7959684978034582</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BF38">
         <f t="shared" ref="BF38:BF44" si="36">MIN(MAX($AK$37:$AV$44)/MAX(AQ38, 0.01), 10)</f>
-        <v>1.7969441601361515</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BG38">
         <f t="shared" ref="BG38:BG44" si="37">MIN(MAX($AK$37:$AV$44)/MAX(AR38, 0.01), 10)</f>
-        <v>1.7969915554003268</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BH38">
         <f t="shared" ref="BH38:BH44" si="38">MIN(MAX($AK$37:$AV$44)/MAX(AS38, 0.01), 10)</f>
-        <v>1.7969920977778251</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BI38">
         <f t="shared" ref="BI38:BI44" si="39">MIN(MAX($AK$37:$AV$44)/MAX(AT38, 0.01), 10)</f>
-        <v>1.7969921054233418</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BJ38">
         <f t="shared" ref="BJ38:BJ44" si="40">MIN(MAX($AK$37:$AV$44)/MAX(AU38, 0.01), 10)</f>
-        <v>1.7969921055796274</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BK38">
         <f t="shared" ref="BK38:BK44" si="41">MIN(MAX($AK$37:$AV$44)/MAX(AV38, 0.01), 10)</f>
-        <v>1.7969921055840581</v>
+        <v>3.9221941621045628</v>
       </c>
     </row>
     <row r="39" spans="1:63" x14ac:dyDescent="0.2">
@@ -18795,91 +18755,91 @@
         <v>450</v>
       </c>
       <c r="AK39" s="2">
-        <v>0.38983737439733512</v>
+        <v>1.5269231088771089E-2</v>
       </c>
       <c r="AL39" s="2">
-        <v>0.3767348837493098</v>
+        <v>1.1651438324364591E-2</v>
       </c>
       <c r="AM39" s="2">
-        <v>0.36764101856393139</v>
+        <v>8.2359000154040695E-3</v>
       </c>
       <c r="AN39" s="2">
-        <v>0.36248905439793933</v>
+        <v>5.3871034467895844E-3</v>
       </c>
       <c r="AO39" s="2">
-        <v>0.35992000025270693</v>
+        <v>3.265149637771698E-3</v>
       </c>
       <c r="AP39" s="2">
-        <v>0.358941955892289</v>
+        <v>2.3036867220996376E-3</v>
       </c>
       <c r="AQ39" s="2">
-        <v>0.35873559433476232</v>
+        <v>2.0975071837184933E-3</v>
       </c>
       <c r="AR39" s="2">
-        <v>0.35872557550758311</v>
+        <v>2.0874901573751554E-3</v>
       </c>
       <c r="AS39" s="2">
-        <v>0.35872546085812274</v>
+        <v>2.087375532716347E-3</v>
       </c>
       <c r="AT39" s="2">
-        <v>0.3587254592419899</v>
+        <v>2.0873739170945709E-3</v>
       </c>
       <c r="AU39" s="2">
-        <v>0.35872545920895371</v>
+        <v>2.0873738840732643E-3</v>
       </c>
       <c r="AV39" s="2">
-        <v>0.35872545920801707</v>
+        <v>2.0873738831373263E-3</v>
       </c>
       <c r="AY39" s="2">
         <v>450</v>
       </c>
       <c r="AZ39">
         <f t="shared" si="30"/>
-        <v>1.4563870541389961</v>
+        <v>2.5686913370437647</v>
       </c>
       <c r="BA39">
         <f t="shared" si="31"/>
-        <v>1.5070388482252035</v>
+        <v>3.3662746631913869</v>
       </c>
       <c r="BB39">
         <f t="shared" si="32"/>
-        <v>1.544316538751743</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BC39">
         <f t="shared" si="33"/>
-        <v>1.5662655145127145</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BD39">
         <f t="shared" si="34"/>
-        <v>1.5774452792097813</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BE39">
         <f t="shared" si="35"/>
-        <v>1.5817434991137871</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BF39">
         <f t="shared" si="36"/>
-        <v>1.5826533922418724</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BG39">
         <f t="shared" si="37"/>
-        <v>1.5826975940827894</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BH39">
         <f t="shared" si="38"/>
-        <v>1.5826980999164837</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BI39">
         <f t="shared" si="39"/>
-        <v>1.582698107046868</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BJ39">
         <f t="shared" si="40"/>
-        <v>1.5826981071926238</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BK39">
         <f t="shared" si="41"/>
-        <v>1.5826981071967563</v>
+        <v>3.9221941621045628</v>
       </c>
     </row>
     <row r="40" spans="1:63" x14ac:dyDescent="0.2">
@@ -18914,91 +18874,91 @@
         <v>500</v>
       </c>
       <c r="AK40" s="2">
-        <v>0.4171015663754335</v>
+        <v>1.726190016251156E-2</v>
       </c>
       <c r="AL40" s="2">
-        <v>0.40228917116499263</v>
+        <v>1.317197728789048E-2</v>
       </c>
       <c r="AM40" s="2">
-        <v>0.39200853607546388</v>
+        <v>9.3107035310299718E-3</v>
       </c>
       <c r="AN40" s="2">
-        <v>0.38618422897334681</v>
+        <v>6.0901325890594452E-3</v>
       </c>
       <c r="AO40" s="2">
-        <v>0.38327990747154589</v>
+        <v>3.6912590251073681E-3</v>
       </c>
       <c r="AP40" s="2">
-        <v>0.38217422611759361</v>
+        <v>2.6043230318147101E-3</v>
       </c>
       <c r="AQ40" s="2">
-        <v>0.38194093391167339</v>
+        <v>2.3712365989487249E-3</v>
       </c>
       <c r="AR40" s="2">
-        <v>0.38192960760496475</v>
+        <v>2.3599123280893305E-3</v>
       </c>
       <c r="AS40" s="2">
-        <v>0.38192947799349147</v>
+        <v>2.359782744654185E-3</v>
       </c>
       <c r="AT40" s="2">
-        <v>0.38192947616644979</v>
+        <v>2.3597809181901252E-3</v>
       </c>
       <c r="AU40" s="2">
-        <v>0.38192947612910211</v>
+        <v>2.3597808808594641E-3</v>
       </c>
       <c r="AV40" s="2">
-        <v>0.38192947612804351</v>
+        <v>2.3597808798013829E-3</v>
       </c>
       <c r="AY40" s="2">
         <v>500</v>
       </c>
       <c r="AZ40">
         <f t="shared" si="30"/>
-        <v>1.3611890989178876</v>
+        <v>2.2721682579433331</v>
       </c>
       <c r="BA40">
         <f t="shared" si="31"/>
-        <v>1.4113084467266466</v>
+        <v>2.9776806293998024</v>
       </c>
       <c r="BB40">
         <f t="shared" si="32"/>
-        <v>1.448320771215349</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BC40">
         <f t="shared" si="33"/>
-        <v>1.4701638821480727</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BD40">
         <f t="shared" si="34"/>
-        <v>1.4813041180197137</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BE40">
         <f t="shared" si="35"/>
-        <v>1.4855897297404874</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BF40">
         <f t="shared" si="36"/>
-        <v>1.4864971383850496</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BG40">
         <f t="shared" si="37"/>
-        <v>1.4865412211745888</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BH40">
         <f t="shared" si="38"/>
-        <v>1.4865417256467723</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BI40">
         <f t="shared" si="39"/>
-        <v>1.486541732757964</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BJ40">
         <f t="shared" si="40"/>
-        <v>1.4865417329033284</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BK40">
         <f t="shared" si="41"/>
-        <v>1.4865417329074486</v>
+        <v>3.9221941621045628</v>
       </c>
     </row>
     <row r="41" spans="1:63" x14ac:dyDescent="0.2">
@@ -19033,91 +18993,91 @@
         <v>550</v>
       </c>
       <c r="AK41" s="2">
-        <v>0.44817505368211696</v>
+        <v>1.9937705554373557E-2</v>
       </c>
       <c r="AL41" s="2">
-        <v>0.43106655627238832</v>
+        <v>1.5213794673034848E-2</v>
       </c>
       <c r="AM41" s="2">
-        <v>0.41919229715837258</v>
+        <v>1.0753976315524466E-2</v>
       </c>
       <c r="AN41" s="2">
-        <v>0.41246515130717443</v>
+        <v>7.0341775358734957E-3</v>
       </c>
       <c r="AO41" s="2">
-        <v>0.40911062449414182</v>
+        <v>4.2634492654798767E-3</v>
       </c>
       <c r="AP41" s="2">
-        <v>0.40783354902360491</v>
+        <v>3.0080249154933749E-3</v>
       </c>
       <c r="AQ41" s="2">
-        <v>0.40756409367592883</v>
+        <v>2.7388072382086171E-3</v>
       </c>
       <c r="AR41" s="2">
-        <v>0.4075510116533213</v>
+        <v>2.7257275670316055E-3</v>
       </c>
       <c r="AS41" s="2">
-        <v>0.40755086195048618</v>
+        <v>2.7255778965810523E-3</v>
       </c>
       <c r="AT41" s="2">
-        <v>0.40755085984023076</v>
+        <v>2.7255757869927536E-3</v>
       </c>
       <c r="AU41" s="2">
-        <v>0.40755085979709388</v>
+        <v>2.7255757438753823E-3</v>
       </c>
       <c r="AV41" s="2">
-        <v>0.40755085979587086</v>
+        <v>2.7255757426532861E-3</v>
       </c>
       <c r="AY41" s="2">
         <v>550</v>
       </c>
       <c r="AZ41">
         <f t="shared" si="30"/>
-        <v>1.2668132700097008</v>
+        <v>1.9672244388443112</v>
       </c>
       <c r="BA41">
         <f t="shared" si="31"/>
-        <v>1.3170915187701442</v>
+        <v>2.5780512005044454</v>
       </c>
       <c r="BB41">
         <f t="shared" si="32"/>
-        <v>1.3544001384102626</v>
+        <v>3.647203645448311</v>
       </c>
       <c r="BC41">
         <f t="shared" si="33"/>
-        <v>1.3764898767629301</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BD41">
         <f t="shared" si="34"/>
-        <v>1.3877764870903411</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BE41">
         <f t="shared" si="35"/>
-        <v>1.3921221210248078</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BF41">
         <f t="shared" si="36"/>
-        <v>1.3930425032565816</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BG41">
         <f t="shared" si="37"/>
-        <v>1.3930872186737926</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BH41">
         <f t="shared" si="38"/>
-        <v>1.3930877303868712</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BI41">
         <f t="shared" si="39"/>
-        <v>1.3930877376001325</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BJ41">
         <f t="shared" si="40"/>
-        <v>1.3930877377475828</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BK41">
         <f t="shared" si="41"/>
-        <v>1.3930877377517634</v>
+        <v>3.9221941621045628</v>
       </c>
     </row>
     <row r="42" spans="1:63" x14ac:dyDescent="0.2">
@@ -19152,91 +19112,91 @@
         <v>600</v>
       </c>
       <c r="AK42" s="2">
-        <v>0.48625177403415409</v>
+        <v>2.4281456282901129E-2</v>
       </c>
       <c r="AL42" s="2">
-        <v>0.46541591821737116</v>
+        <v>1.852836573242499E-2</v>
       </c>
       <c r="AM42" s="2">
-        <v>0.45095465984934358</v>
+        <v>1.3096903865799606E-2</v>
       </c>
       <c r="AN42" s="2">
-        <v>0.44276189654777148</v>
+        <v>8.5666868011740147E-3</v>
       </c>
       <c r="AO42" s="2">
-        <v>0.4386765318513548</v>
+        <v>5.1923105954882684E-3</v>
       </c>
       <c r="AP42" s="2">
-        <v>0.43712122484897142</v>
+        <v>3.6633717602010522E-3</v>
       </c>
       <c r="AQ42" s="2">
-        <v>0.43679306429876191</v>
+        <v>3.3355006607191035E-3</v>
       </c>
       <c r="AR42" s="2">
-        <v>0.43677713214609259</v>
+        <v>3.3195713717774503E-3</v>
       </c>
       <c r="AS42" s="2">
-        <v>0.43677694982807547</v>
+        <v>3.3193890932002126E-3</v>
       </c>
       <c r="AT42" s="2">
-        <v>0.43677694725806654</v>
+        <v>3.3193865240040048E-3</v>
       </c>
       <c r="AU42" s="2">
-        <v>0.43677694720553167</v>
+        <v>3.3193864714928193E-3</v>
       </c>
       <c r="AV42" s="2">
-        <v>0.43677694720404237</v>
+        <v>3.3193864700044699E-3</v>
       </c>
       <c r="AY42" s="2">
         <v>600</v>
       </c>
       <c r="AZ42">
         <f t="shared" si="30"/>
-        <v>1.1676134373381988</v>
+        <v>1.6153043361186499</v>
       </c>
       <c r="BA42">
         <f t="shared" si="31"/>
-        <v>1.2198854466912494</v>
+        <v>2.1168592086028659</v>
       </c>
       <c r="BB42">
         <f t="shared" si="32"/>
-        <v>1.2590048531297868</v>
+        <v>2.9947491424646731</v>
       </c>
       <c r="BC42">
         <f t="shared" si="33"/>
-        <v>1.2823011865262401</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BD42">
         <f t="shared" si="34"/>
-        <v>1.2942431702368771</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BE42">
         <f t="shared" si="35"/>
-        <v>1.2988481753270595</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BF42">
         <f t="shared" si="36"/>
-        <v>1.2998239937790723</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BG42">
         <f t="shared" si="37"/>
-        <v>1.2998714069625656</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BH42">
         <f t="shared" si="38"/>
-        <v>1.2998719495506703</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BI42">
         <f t="shared" si="39"/>
-        <v>1.2998719571991568</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BJ42">
         <f t="shared" si="40"/>
-        <v>1.2998719573555033</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BK42">
         <f t="shared" si="41"/>
-        <v>1.2998719573599355</v>
+        <v>3.9221941621045628</v>
       </c>
     </row>
     <row r="43" spans="1:63" x14ac:dyDescent="0.2">
@@ -19270,91 +19230,91 @@
         <v>650</v>
       </c>
       <c r="AK43">
-        <v>0.52727350750791024</v>
+        <v>3.0707131912833432E-2</v>
       </c>
       <c r="AL43">
-        <v>0.50092797889708895</v>
+        <v>2.3432371153036372E-2</v>
       </c>
       <c r="AM43">
-        <v>0.48263918693814462</v>
+        <v>1.6563335450987548E-2</v>
       </c>
       <c r="AN43">
-        <v>0.47227799868560238</v>
+        <v>1.0834080229013089E-2</v>
       </c>
       <c r="AO43">
-        <v>0.46711133741836375</v>
+        <v>6.5665887957803487E-3</v>
       </c>
       <c r="AP43">
-        <v>0.46514437851865359</v>
+        <v>4.6329770750229088E-3</v>
       </c>
       <c r="AQ43">
-        <v>0.46472936186034774</v>
+        <v>4.2183264780048203E-3</v>
       </c>
       <c r="AR43">
-        <v>0.4647092128547578</v>
+        <v>4.1981810941019229E-3</v>
       </c>
       <c r="AS43">
-        <v>0.46470898228160024</v>
+        <v>4.1979505708231255E-3</v>
       </c>
       <c r="AT43">
-        <v>0.46470897903137276</v>
+        <v>4.1979473216232355E-3</v>
       </c>
       <c r="AU43">
-        <v>0.46470897896493302</v>
+        <v>4.1979472552136137E-3</v>
       </c>
       <c r="AV43">
-        <v>0.46470897896304958</v>
+        <v>4.1979472533313356E-3</v>
       </c>
       <c r="AY43" s="2">
         <v>650</v>
       </c>
       <c r="AZ43">
         <f t="shared" si="30"/>
-        <v>1.0767734339152215</v>
+        <v>1.2772909476659264</v>
       </c>
       <c r="BA43">
         <f t="shared" si="31"/>
-        <v>1.1334046593721123</v>
+        <v>1.6738357959972496</v>
       </c>
       <c r="BB43">
         <f t="shared" si="32"/>
-        <v>1.1763531032232151</v>
+        <v>2.3679977826390708</v>
       </c>
       <c r="BC43">
         <f t="shared" si="33"/>
-        <v>1.2021608181451033</v>
+        <v>3.6202373244395365</v>
       </c>
       <c r="BD43">
         <f t="shared" si="34"/>
-        <v>1.2154577716517987</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BE43">
         <f t="shared" si="35"/>
-        <v>1.2205975854205604</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BF43">
         <f t="shared" si="36"/>
-        <v>1.221687614096626</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BG43">
         <f t="shared" si="37"/>
-        <v>1.2217405844055518</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BH43">
         <f t="shared" si="38"/>
-        <v>1.221741190592639</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BI43">
         <f t="shared" si="39"/>
-        <v>1.2217411991376359</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BJ43">
         <f t="shared" si="40"/>
-        <v>1.2217411993123088</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BK43">
         <f t="shared" si="41"/>
-        <v>1.2217411993172607</v>
+        <v>3.9221941621045628</v>
       </c>
     </row>
     <row r="44" spans="1:63" x14ac:dyDescent="0.2">
@@ -19388,40 +19348,40 @@
         <v>700</v>
       </c>
       <c r="AK44">
-        <v>0.5677541052918158</v>
+        <v>3.9221941621045628E-2</v>
       </c>
       <c r="AL44">
-        <v>0.53492997897570005</v>
+        <v>3.0112178265727804E-2</v>
       </c>
       <c r="AM44">
-        <v>0.51143295755464901</v>
+        <v>2.12862774238088E-2</v>
       </c>
       <c r="AN44">
-        <v>0.49811735003385005</v>
+        <v>1.3923360474728501E-2</v>
       </c>
       <c r="AO44">
-        <v>0.49147744290467998</v>
+        <v>8.4390166077338256E-3</v>
       </c>
       <c r="AP44">
-        <v>0.48894961615319432</v>
+        <v>5.9540458051153848E-3</v>
       </c>
       <c r="AQ44">
-        <v>0.48841625970554975</v>
+        <v>5.4211597991773337E-3</v>
       </c>
       <c r="AR44">
-        <v>0.4883903653183489</v>
+        <v>5.3952700663677956E-3</v>
       </c>
       <c r="AS44">
-        <v>0.48839006899848392</v>
+        <v>5.3949738106040309E-3</v>
       </c>
       <c r="AT44">
-        <v>0.48839006482147118</v>
+        <v>5.3949696349121041E-3</v>
       </c>
       <c r="AU44">
-        <v>0.48839006473608687</v>
+        <v>5.3949695495661334E-3</v>
       </c>
       <c r="AV44">
-        <v>0.48839006473366608</v>
+        <v>5.39496954714713E-3</v>
       </c>
       <c r="AY44" s="2">
         <v>700</v>
@@ -19432,47 +19392,47 @@
       </c>
       <c r="BA44">
         <f t="shared" si="31"/>
-        <v>1.0613615381567665</v>
+        <v>1.3025275446674047</v>
       </c>
       <c r="BB44">
         <f t="shared" si="32"/>
-        <v>1.1101242047568838</v>
+        <v>1.8425928047510884</v>
       </c>
       <c r="BC44">
         <f t="shared" si="33"/>
-        <v>1.1397998990664218</v>
+        <v>2.8169881611723797</v>
       </c>
       <c r="BD44">
         <f t="shared" si="34"/>
-        <v>1.1551987044132346</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BE44">
         <f t="shared" si="35"/>
-        <v>1.1611709806802077</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BF44">
         <f t="shared" si="36"/>
-        <v>1.1624389933989836</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BG44">
         <f t="shared" si="37"/>
-        <v>1.1625006257478789</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BH44">
         <f t="shared" si="38"/>
-        <v>1.1625013310694043</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BI44">
         <f t="shared" si="39"/>
-        <v>1.1625013410118319</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BJ44">
         <f t="shared" si="40"/>
-        <v>1.16250134121507</v>
+        <v>3.9221941621045628</v>
       </c>
       <c r="BK44">
         <f t="shared" si="41"/>
-        <v>1.162501341220832</v>
+        <v>3.9221941621045628</v>
       </c>
     </row>
     <row r="45" spans="1:63" x14ac:dyDescent="0.2">
@@ -19692,7 +19652,7 @@
       </c>
       <c r="AJ51">
         <f>Mem_Catch</f>
-        <v>0.40755085979582245</v>
+        <v>2.7255757426047217E-3</v>
       </c>
       <c r="AK51">
         <f>Yield</f>
@@ -19736,25 +19696,25 @@
       </c>
       <c r="AJ52">
         <f t="dataTable" ref="AJ52:AL78" dt2D="0" dtr="0" r1="B15" ca="1"/>
-        <v>0.26171116988358456</v>
+        <v>1.434137974842975E-3</v>
       </c>
       <c r="AK52">
-        <v>0.81593467802814179</v>
+        <v>0.88634317202006407</v>
       </c>
       <c r="AL52">
         <v>0.1439414404562844</v>
       </c>
       <c r="AM52">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ52, 0.01), 10)</f>
-        <v>2.1693919504627219</v>
+        <f t="shared" ref="AM52:AM78" si="46">MIN(MAX($AJ$52:$AJ$78)/MAX(AJ52, 0.01), 10)</f>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN52">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK52, 0.01), 10)</f>
-        <v>1.1363522157046042</v>
+        <f t="shared" ref="AN52:AN78" si="47">MIN(MAX($AK$52:$AK$78)/MAX(AK52, 0.01), 10)</f>
+        <v>1.0460837388010191</v>
       </c>
       <c r="AO52" s="2">
         <f>AM52+AN52</f>
-        <v>3.3057441661673259</v>
+        <v>4.968277900887049</v>
       </c>
     </row>
     <row r="53" spans="3:41" x14ac:dyDescent="0.2">
@@ -19788,25 +19748,25 @@
         <v>50</v>
       </c>
       <c r="AJ53">
-        <v>0.26171116988358456</v>
+        <v>1.434137974842975E-3</v>
       </c>
       <c r="AK53">
-        <v>0.81593467802814179</v>
+        <v>0.88634317202006407</v>
       </c>
       <c r="AL53">
         <v>0.1439414404562844</v>
       </c>
       <c r="AM53">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ53, 0.01), 10)</f>
-        <v>2.1693919504627219</v>
+        <f t="shared" si="46"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN53">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK53, 0.01), 10)</f>
-        <v>1.1363522157046042</v>
+        <f t="shared" si="47"/>
+        <v>1.0460837388010191</v>
       </c>
       <c r="AO53" s="2">
-        <f t="shared" ref="AO53:AO78" si="46">AM53+AN53</f>
-        <v>3.3057441661673259</v>
+        <f t="shared" ref="AO53:AO78" si="48">AM53+AN53</f>
+        <v>4.968277900887049</v>
       </c>
     </row>
     <row r="54" spans="3:41" x14ac:dyDescent="0.2">
@@ -19840,25 +19800,25 @@
         <v>100</v>
       </c>
       <c r="AJ54">
-        <v>0.26171116988358456</v>
+        <v>1.434137974842975E-3</v>
       </c>
       <c r="AK54">
-        <v>0.81593467802814179</v>
+        <v>0.88634157373582489</v>
       </c>
       <c r="AL54">
         <v>0.1439414404562844</v>
       </c>
       <c r="AM54">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ54, 0.01), 10)</f>
-        <v>2.1693919504627219</v>
+        <f t="shared" si="46"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN54">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK54, 0.01), 10)</f>
-        <v>1.1363522157046042</v>
+        <f t="shared" si="47"/>
+        <v>1.0460856251382984</v>
       </c>
       <c r="AO54" s="2">
-        <f t="shared" si="46"/>
-        <v>3.3057441661673259</v>
+        <f t="shared" si="48"/>
+        <v>4.9682797872243283</v>
       </c>
     </row>
     <row r="55" spans="3:41" x14ac:dyDescent="0.2">
@@ -19892,25 +19852,25 @@
         <v>150</v>
       </c>
       <c r="AJ55">
-        <v>0.26171116988358456</v>
+        <v>1.434137974842975E-3</v>
       </c>
       <c r="AK55">
-        <v>0.81593467802814179</v>
+        <v>0.88345419869675801</v>
       </c>
       <c r="AL55">
         <v>0.1439414404562844</v>
       </c>
       <c r="AM55">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ55, 0.01), 10)</f>
-        <v>2.1693919504627219</v>
+        <f t="shared" si="46"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN55">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK55, 0.01), 10)</f>
-        <v>1.1363522157046042</v>
+        <f t="shared" si="47"/>
+        <v>1.0495045250962212</v>
       </c>
       <c r="AO55" s="2">
-        <f t="shared" si="46"/>
-        <v>3.3057441661673259</v>
+        <f t="shared" si="48"/>
+        <v>4.9716986871822506</v>
       </c>
     </row>
     <row r="56" spans="3:41" x14ac:dyDescent="0.2">
@@ -19944,25 +19904,25 @@
         <v>200</v>
       </c>
       <c r="AJ56">
-        <v>0.26171116988358456</v>
+        <v>1.434137974842975E-3</v>
       </c>
       <c r="AK56">
-        <v>0.81593467802814179</v>
+        <v>0.88103370382895285</v>
       </c>
       <c r="AL56">
         <v>0.1439414404562844</v>
       </c>
       <c r="AM56">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ56, 0.01), 10)</f>
-        <v>2.1693919504627219</v>
+        <f t="shared" si="46"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN56">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK56, 0.01), 10)</f>
-        <v>1.1363522157046042</v>
+        <f t="shared" si="47"/>
+        <v>1.052387865773988</v>
       </c>
       <c r="AO56" s="2">
-        <f t="shared" si="46"/>
-        <v>3.3057441661673259</v>
+        <f t="shared" si="48"/>
+        <v>4.9745820278600181</v>
       </c>
     </row>
     <row r="57" spans="3:41" x14ac:dyDescent="0.2">
@@ -19996,25 +19956,25 @@
         <v>250</v>
       </c>
       <c r="AJ57">
-        <v>0.26171116988358484</v>
+        <v>1.434137974842977E-3</v>
       </c>
       <c r="AK57">
-        <v>0.81593467802814235</v>
+        <v>0.86484566578620736</v>
       </c>
       <c r="AL57">
         <v>0.14394144045628457</v>
       </c>
       <c r="AM57">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ57, 0.01), 10)</f>
-        <v>2.1693919504627197</v>
+        <f t="shared" si="46"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN57">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK57, 0.01), 10)</f>
-        <v>1.1363522157046035</v>
+        <f t="shared" si="47"/>
+        <v>1.0720862876784165</v>
       </c>
       <c r="AO57" s="2">
-        <f t="shared" si="46"/>
-        <v>3.3057441661673233</v>
+        <f t="shared" si="48"/>
+        <v>4.994280449764446</v>
       </c>
     </row>
     <row r="58" spans="3:41" x14ac:dyDescent="0.2">
@@ -20048,25 +20008,25 @@
         <v>300</v>
       </c>
       <c r="AJ58">
-        <v>0.26171117146508976</v>
+        <v>1.4341379835102468E-3</v>
       </c>
       <c r="AK58">
-        <v>0.81593468123409318</v>
+        <v>0.81824097657503614</v>
       </c>
       <c r="AL58">
         <v>0.14394144132620038</v>
       </c>
       <c r="AM58">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ58, 0.01), 10)</f>
-        <v>2.1693919373532142</v>
+        <f t="shared" si="46"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN58">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK58, 0.01), 10)</f>
-        <v>1.1363522112396758</v>
+        <f t="shared" si="47"/>
+        <v>1.1331492870578286</v>
       </c>
       <c r="AO58" s="2">
-        <f t="shared" si="46"/>
-        <v>3.3057441485928898</v>
+        <f t="shared" si="48"/>
+        <v>5.0553434491438587</v>
       </c>
     </row>
     <row r="59" spans="3:41" x14ac:dyDescent="0.2">
@@ -20087,25 +20047,25 @@
         <v>350</v>
       </c>
       <c r="AJ59">
-        <v>0.26208954777855037</v>
+        <v>1.4362451851218782E-3</v>
       </c>
       <c r="AK59">
-        <v>0.81640733160808299</v>
+        <v>0.81700718885589996</v>
       </c>
       <c r="AL59">
         <v>0.14415293676152846</v>
       </c>
       <c r="AM59">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ59, 0.01), 10)</f>
-        <v>2.1662600058028554</v>
+        <f t="shared" si="46"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN59">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK59, 0.01), 10)</f>
-        <v>1.1356943321677564</v>
+        <f t="shared" si="47"/>
+        <v>1.134860490696413</v>
       </c>
       <c r="AO59" s="2">
-        <f t="shared" si="46"/>
-        <v>3.3019543379706118</v>
+        <f t="shared" si="48"/>
+        <v>5.0570546527824423</v>
       </c>
     </row>
     <row r="60" spans="3:41" x14ac:dyDescent="0.2">
@@ -20113,25 +20073,25 @@
         <v>400</v>
       </c>
       <c r="AJ60">
-        <v>0.31594691124546087</v>
+        <v>1.7361928911800318E-3</v>
       </c>
       <c r="AK60">
-        <v>0.88368159617790454</v>
+        <v>0.88368176857055847</v>
       </c>
       <c r="AL60">
         <v>0.17425806306656078</v>
       </c>
       <c r="AM60">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ60, 0.01), 10)</f>
-        <v>1.7969921055836466</v>
+        <f t="shared" si="46"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN60">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK60, 0.01), 10)</f>
-        <v>1.0492344564578193</v>
+        <f t="shared" si="47"/>
+        <v>1.0492342517683968</v>
       </c>
       <c r="AO60" s="2">
-        <f t="shared" si="46"/>
-        <v>2.846226562041466</v>
+        <f t="shared" si="48"/>
+        <v>4.9714284138544267</v>
       </c>
     </row>
     <row r="61" spans="3:41" x14ac:dyDescent="0.2">
@@ -20151,25 +20111,25 @@
         <v>450</v>
       </c>
       <c r="AJ61">
-        <v>0.35872545920797982</v>
+        <v>2.0873738831001321E-3</v>
       </c>
       <c r="AK61">
-        <v>0.92030050406337738</v>
+        <v>0.92030050406986685</v>
       </c>
       <c r="AL61">
         <v>0.2095053000773307</v>
       </c>
       <c r="AM61">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ61, 0.01), 10)</f>
-        <v>1.5826981071964035</v>
+        <f t="shared" si="46"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN61">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK61, 0.01), 10)</f>
-        <v>1.0074852454754821</v>
+        <f t="shared" si="47"/>
+        <v>1.0074852454683798</v>
       </c>
       <c r="AO61" s="2">
-        <f t="shared" si="46"/>
-        <v>2.5901833526718856</v>
+        <f t="shared" si="48"/>
+        <v>4.9296794075544099</v>
       </c>
     </row>
     <row r="62" spans="3:41" x14ac:dyDescent="0.2">
@@ -20193,25 +20153,25 @@
         <v>500</v>
       </c>
       <c r="AJ62">
-        <v>0.38192947612800132</v>
+        <v>2.3597808797593354E-3</v>
       </c>
       <c r="AK62">
-        <v>0.92718917924750177</v>
+        <v>0.92718917924750355</v>
       </c>
       <c r="AL62">
         <v>0.23494438400939685</v>
       </c>
       <c r="AM62">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ62, 0.01), 10)</f>
-        <v>1.4865417329071271</v>
+        <f t="shared" si="46"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN62">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK62, 0.01), 10)</f>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="AO62" s="2">
-        <f t="shared" si="46"/>
-        <v>2.4865417329071269</v>
+        <f t="shared" si="48"/>
+        <v>4.9221941620860292</v>
       </c>
     </row>
     <row r="63" spans="3:41" x14ac:dyDescent="0.2">
@@ -20222,7 +20182,7 @@
         <v>-0.5</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" ref="E63:E72" si="47">0.11*(1+D63)</f>
+        <f t="shared" ref="E63:E72" si="49">0.11*(1+D63)</f>
         <v>5.5E-2</v>
       </c>
       <c r="F63">
@@ -20236,7 +20196,7 @@
         <v>-0.5</v>
       </c>
       <c r="V63">
-        <f t="shared" ref="V63:V83" si="48">0.15*(1+U63)</f>
+        <f t="shared" ref="V63:V83" si="50">0.15*(1+U63)</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="W63">
@@ -20250,7 +20210,7 @@
         <v>550</v>
       </c>
       <c r="AJ63">
-        <v>0.40755085979582245</v>
+        <v>2.7255757426047217E-3</v>
       </c>
       <c r="AK63">
         <v>0.92548350276448099</v>
@@ -20259,16 +20219,16 @@
         <v>0.26679198379789282</v>
       </c>
       <c r="AM63">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ63, 0.01), 10)</f>
-        <v>1.3930877377514737</v>
+        <f t="shared" si="46"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN63">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK63, 0.01), 10)</f>
-        <v>1.0018430112237828</v>
+        <f t="shared" si="47"/>
+        <v>1.0018430112237848</v>
       </c>
       <c r="AO63" s="2">
-        <f t="shared" si="46"/>
-        <v>2.3949307489752565</v>
+        <f t="shared" si="48"/>
+        <v>4.9240371733098147</v>
       </c>
     </row>
     <row r="64" spans="3:41" x14ac:dyDescent="0.2">
@@ -20276,7 +20236,7 @@
         <v>-0.45</v>
       </c>
       <c r="E64" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>6.0500000000000005E-2</v>
       </c>
       <c r="F64">
@@ -20289,7 +20249,7 @@
         <v>-0.45</v>
       </c>
       <c r="V64">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="W64">
@@ -20302,7 +20262,7 @@
         <v>600</v>
       </c>
       <c r="AJ64">
-        <v>0.43677694720398325</v>
+        <v>3.3193864699453211E-3</v>
       </c>
       <c r="AK64">
         <v>0.90066809170636608</v>
@@ -20311,16 +20271,16 @@
         <v>0.31153526810767102</v>
       </c>
       <c r="AM64">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ64, 0.01), 10)</f>
-        <v>1.2998719573596869</v>
+        <f t="shared" si="46"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN64">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK64, 0.01), 10)</f>
-        <v>1.0294460165574313</v>
+        <f t="shared" si="47"/>
+        <v>1.0294460165574333</v>
       </c>
       <c r="AO64" s="2">
-        <f t="shared" si="46"/>
-        <v>2.3293179739171181</v>
+        <f t="shared" si="48"/>
+        <v>4.951640178643463</v>
       </c>
     </row>
     <row r="65" spans="4:41" x14ac:dyDescent="0.2">
@@ -20328,7 +20288,7 @@
         <v>-0.4</v>
       </c>
       <c r="E65" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="F65">
@@ -20341,7 +20301,7 @@
         <v>-0.4</v>
       </c>
       <c r="V65">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.09</v>
       </c>
       <c r="W65">
@@ -20354,7 +20314,7 @@
         <v>650</v>
       </c>
       <c r="AJ65">
-        <v>0.46470897896297481</v>
+        <v>4.1979472532565317E-3</v>
       </c>
       <c r="AK65">
         <v>0.84562647282190351</v>
@@ -20363,16 +20323,16 @@
         <v>0.364274528322097</v>
       </c>
       <c r="AM65">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ65, 0.01), 10)</f>
-        <v>1.2217411993170579</v>
+        <f t="shared" si="46"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN65">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK65, 0.01), 10)</f>
-        <v>1.096452404278947</v>
+        <f t="shared" si="47"/>
+        <v>1.0964524042789492</v>
       </c>
       <c r="AO65" s="2">
-        <f t="shared" si="46"/>
-        <v>2.3181936035960051</v>
+        <f t="shared" si="48"/>
+        <v>5.0186465663649784</v>
       </c>
     </row>
     <row r="66" spans="4:41" x14ac:dyDescent="0.2">
@@ -20380,7 +20340,7 @@
         <v>-0.35</v>
       </c>
       <c r="E66" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>7.1500000000000008E-2</v>
       </c>
       <c r="F66">
@@ -20393,7 +20353,7 @@
         <v>-0.35</v>
       </c>
       <c r="V66">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>9.7500000000000003E-2</v>
       </c>
       <c r="W66">
@@ -20406,7 +20366,7 @@
         <v>700</v>
       </c>
       <c r="AJ66">
-        <v>0.48839006473356988</v>
+        <v>5.3949695470509977E-3</v>
       </c>
       <c r="AK66">
         <v>0.76682182163423884</v>
@@ -20415,16 +20375,16 @@
         <v>0.41811887462995945</v>
       </c>
       <c r="AM66">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ66, 0.01), 10)</f>
-        <v>1.1625013412206811</v>
+        <f t="shared" si="46"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN66">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK66, 0.01), 10)</f>
-        <v>1.2091324908718566</v>
+        <f t="shared" si="47"/>
+        <v>1.209132490871859</v>
       </c>
       <c r="AO66" s="2">
-        <f t="shared" si="46"/>
-        <v>2.3716338320925376</v>
+        <f t="shared" si="48"/>
+        <v>5.1313266529578883</v>
       </c>
     </row>
     <row r="67" spans="4:41" x14ac:dyDescent="0.2">
@@ -20432,7 +20392,7 @@
         <v>-0.3</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="F67">
@@ -20445,7 +20405,7 @@
         <v>-0.3</v>
       </c>
       <c r="V67">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.105</v>
       </c>
       <c r="W67">
@@ -20458,7 +20418,7 @@
         <v>750</v>
       </c>
       <c r="AJ67">
-        <v>0.50769534297057373</v>
+        <v>7.0923224904331124E-3</v>
       </c>
       <c r="AK67">
         <v>0.67033751475772907</v>
@@ -20467,16 +20427,16 @@
         <v>0.47034932069869562</v>
       </c>
       <c r="AM67">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ67, 0.01), 10)</f>
-        <v>1.1182968549005139</v>
+        <f t="shared" si="46"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN67">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK67, 0.01), 10)</f>
-        <v>1.3831676712627416</v>
+        <f t="shared" si="47"/>
+        <v>1.3831676712627443</v>
       </c>
       <c r="AO67" s="2">
-        <f t="shared" si="46"/>
-        <v>2.5014645261632555</v>
+        <f t="shared" si="48"/>
+        <v>5.3053618333487744</v>
       </c>
     </row>
     <row r="68" spans="4:41" x14ac:dyDescent="0.2">
@@ -20484,7 +20444,7 @@
         <v>-0.25</v>
       </c>
       <c r="E68" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="F68">
@@ -20497,7 +20457,7 @@
         <v>-0.25</v>
       </c>
       <c r="V68">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.11249999999999999</v>
       </c>
       <c r="W68">
@@ -20510,7 +20470,7 @@
         <v>800</v>
       </c>
       <c r="AJ68">
-        <v>0.52580925214902507</v>
+        <v>1.0051677742352412E-2</v>
       </c>
       <c r="AK68">
         <v>0.54571860083100288</v>
@@ -20519,16 +20479,16 @@
         <v>0.52750622935891445</v>
       </c>
       <c r="AM68">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ68, 0.01), 10)</f>
-        <v>1.0797719952077169</v>
+        <f t="shared" si="46"/>
+        <v>3.9020293553184602</v>
       </c>
       <c r="AN68">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK68, 0.01), 10)</f>
-        <v>1.6990243283545909</v>
+        <f t="shared" si="47"/>
+        <v>1.6990243283545943</v>
       </c>
       <c r="AO68" s="2">
-        <f t="shared" si="46"/>
-        <v>2.7787963235623079</v>
+        <f t="shared" si="48"/>
+        <v>5.6010536836730545</v>
       </c>
     </row>
     <row r="69" spans="4:41" x14ac:dyDescent="0.2">
@@ -20536,7 +20496,7 @@
         <v>-0.2</v>
       </c>
       <c r="E69" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>8.8000000000000009E-2</v>
       </c>
       <c r="F69">
@@ -20549,7 +20509,7 @@
         <v>-0.2</v>
       </c>
       <c r="V69">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.12</v>
       </c>
       <c r="W69">
@@ -20562,7 +20522,7 @@
         <v>850</v>
       </c>
       <c r="AJ69">
-        <v>0.54082266813144675</v>
+        <v>1.5406700395915119E-2</v>
       </c>
       <c r="AK69">
         <v>0.40786456478750344</v>
@@ -20571,16 +20531,16 @@
         <v>0.58260334739459274</v>
       </c>
       <c r="AM69">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ69, 0.01), 10)</f>
-        <v>1.0497971678096116</v>
+        <f t="shared" si="46"/>
+        <v>2.5457716845885749</v>
       </c>
       <c r="AN69">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK69, 0.01), 10)</f>
-        <v>2.2732771103333413</v>
+        <f t="shared" si="47"/>
+        <v>2.2732771103333458</v>
       </c>
       <c r="AO69" s="2">
-        <f t="shared" si="46"/>
-        <v>3.3230742781429532</v>
+        <f t="shared" si="48"/>
+        <v>4.8190487949219207</v>
       </c>
     </row>
     <row r="70" spans="4:41" x14ac:dyDescent="0.2">
@@ -20588,7 +20548,7 @@
         <v>-0.15</v>
       </c>
       <c r="E70" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>9.35E-2</v>
       </c>
       <c r="F70">
@@ -20601,7 +20561,7 @@
         <v>-0.15</v>
       </c>
       <c r="V70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.1275</v>
       </c>
       <c r="W70">
@@ -20614,7 +20574,7 @@
         <v>900</v>
       </c>
       <c r="AJ70">
-        <v>0.5528984645059305</v>
+        <v>2.4529118678010831E-2</v>
       </c>
       <c r="AK70">
         <v>0.26517280506755797</v>
@@ -20623,16 +20583,16 @@
         <v>0.6335877890446171</v>
       </c>
       <c r="AM70">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ70, 0.01), 10)</f>
-        <v>1.0268686598704426</v>
+        <f t="shared" si="46"/>
+        <v>1.5989951427003724</v>
       </c>
       <c r="AN70">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK70, 0.01), 10)</f>
-        <v>3.4965470120938011</v>
+        <f t="shared" si="47"/>
+        <v>3.4965470120938078</v>
       </c>
       <c r="AO70" s="2">
-        <f t="shared" si="46"/>
-        <v>4.5234156719642442</v>
+        <f t="shared" si="48"/>
+        <v>5.0955421547941802</v>
       </c>
     </row>
     <row r="71" spans="4:41" x14ac:dyDescent="0.2">
@@ -20640,7 +20600,7 @@
         <v>-0.1</v>
       </c>
       <c r="E71" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="F71">
@@ -20653,7 +20613,7 @@
         <v>-0.1</v>
       </c>
       <c r="V71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.13500000000000001</v>
       </c>
       <c r="W71">
@@ -20666,7 +20626,7 @@
         <v>950</v>
       </c>
       <c r="AJ71">
-        <v>0.56177604038739093</v>
+        <v>3.3246350357756242E-2</v>
       </c>
       <c r="AK71">
         <v>0.13302283712171334</v>
@@ -20675,16 +20635,16 @@
         <v>0.6763141196527156</v>
       </c>
       <c r="AM71">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ71, 0.01), 10)</f>
-        <v>1.0106413667982654</v>
+        <f t="shared" si="46"/>
+        <v>1.1797367590367698</v>
       </c>
       <c r="AN71">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK71, 0.01), 10)</f>
-        <v>6.9701503840212151</v>
+        <f t="shared" si="47"/>
+        <v>6.9701503840212284</v>
       </c>
       <c r="AO71" s="2">
-        <f t="shared" si="46"/>
-        <v>7.9807917508194803</v>
+        <f t="shared" si="48"/>
+        <v>8.1498871430579989</v>
       </c>
     </row>
     <row r="72" spans="4:41" x14ac:dyDescent="0.2">
@@ -20692,7 +20652,7 @@
         <v>-0.05</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.1045</v>
       </c>
       <c r="F72">
@@ -20705,7 +20665,7 @@
         <v>-0.05</v>
       </c>
       <c r="V72">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.14249999999999999</v>
       </c>
       <c r="W72">
@@ -20718,7 +20678,7 @@
         <v>1000</v>
       </c>
       <c r="AJ72">
-        <v>0.56688830495191755</v>
+        <v>3.8356171366176112E-2</v>
       </c>
       <c r="AK72">
         <v>3.1764337900715575E-2</v>
@@ -20727,16 +20687,16 @@
         <v>0.70386474718366399</v>
       </c>
       <c r="AM72">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ72, 0.01), 10)</f>
-        <v>1.0015272855907411</v>
+        <f t="shared" si="46"/>
+        <v>1.0225718632451322</v>
       </c>
       <c r="AN72">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK72, 0.01), 10)</f>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="AO72" s="2">
-        <f t="shared" si="46"/>
-        <v>11.001527285590742</v>
+        <f t="shared" si="48"/>
+        <v>11.022571863245131</v>
       </c>
     </row>
     <row r="73" spans="4:41" x14ac:dyDescent="0.2">
@@ -20770,7 +20730,7 @@
         <v>1050</v>
       </c>
       <c r="AJ73">
-        <v>0.56774056902938042</v>
+        <v>3.9208405751095188E-2</v>
       </c>
       <c r="AK73">
         <v>6.6894717282204642E-4</v>
@@ -20779,16 +20739,16 @@
         <v>0.70874357802980426</v>
       </c>
       <c r="AM73">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ73, 0.01), 10)</f>
-        <v>1.0000238423374834</v>
+        <f t="shared" si="46"/>
+        <v>1.0003452287718873</v>
       </c>
       <c r="AN73">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK73, 0.01), 10)</f>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="AO73" s="2">
-        <f t="shared" si="46"/>
-        <v>11.000023842337484</v>
+        <f t="shared" si="48"/>
+        <v>11.000345228771888</v>
       </c>
     </row>
     <row r="74" spans="4:41" x14ac:dyDescent="0.2">
@@ -20796,7 +20756,7 @@
         <v>0.05</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" ref="E74:E83" si="49">0.11*(1+D74)</f>
+        <f t="shared" ref="E74:E83" si="51">0.11*(1+D74)</f>
         <v>0.11550000000000001</v>
       </c>
       <c r="F74">
@@ -20809,7 +20769,7 @@
         <v>0.05</v>
       </c>
       <c r="V74">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.1575</v>
       </c>
       <c r="W74">
@@ -20822,7 +20782,7 @@
         <v>1100</v>
       </c>
       <c r="AJ74">
-        <v>0.56775391796814489</v>
+        <v>3.9221754304781711E-2</v>
       </c>
       <c r="AK74">
         <v>9.0204962894235485E-6</v>
@@ -20831,16 +20791,16 @@
         <v>0.70882059919554907</v>
       </c>
       <c r="AM74">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ74, 0.01), 10)</f>
-        <v>1.000000329937812</v>
+        <f t="shared" si="46"/>
+        <v>1.0000047758210184</v>
       </c>
       <c r="AN74">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK74, 0.01), 10)</f>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="AO74" s="2">
-        <f t="shared" si="46"/>
-        <v>11.000000329937812</v>
+        <f t="shared" si="48"/>
+        <v>11.000004775821019</v>
       </c>
     </row>
     <row r="75" spans="4:41" x14ac:dyDescent="0.2">
@@ -20848,7 +20808,7 @@
         <v>0.1</v>
       </c>
       <c r="E75" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.12100000000000001</v>
       </c>
       <c r="F75">
@@ -20861,7 +20821,7 @@
         <v>0.1</v>
       </c>
       <c r="V75">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="W75">
@@ -20874,7 +20834,7 @@
         <v>1150</v>
       </c>
       <c r="AJ75">
-        <v>0.56775410154532069</v>
+        <v>3.9221937874753032E-2</v>
       </c>
       <c r="AK75">
         <v>1.7494659025919601E-7</v>
@@ -20883,16 +20843,16 @@
         <v>0.70882165689759724</v>
       </c>
       <c r="AM75">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ75, 0.01), 10)</f>
-        <v>1.000000006598472</v>
+        <f t="shared" si="46"/>
+        <v>1.0000000955105093</v>
       </c>
       <c r="AN75">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK75, 0.01), 10)</f>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="AO75" s="2">
-        <f t="shared" si="46"/>
-        <v>11.000000006598473</v>
+        <f t="shared" si="48"/>
+        <v>11.00000009551051</v>
       </c>
     </row>
     <row r="76" spans="4:41" x14ac:dyDescent="0.2">
@@ -20900,7 +20860,7 @@
         <v>0.15</v>
       </c>
       <c r="E76" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.1265</v>
       </c>
       <c r="F76">
@@ -20913,7 +20873,7 @@
         <v>0.15</v>
       </c>
       <c r="V76">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.17249999999999999</v>
       </c>
       <c r="W76">
@@ -20926,7 +20886,7 @@
         <v>1200</v>
       </c>
       <c r="AJ76">
-        <v>0.56775410518769309</v>
+        <v>3.9221941516930592E-2</v>
       </c>
       <c r="AK76">
         <v>4.7232269355696844E-9</v>
@@ -20935,16 +20895,16 @@
         <v>0.7088216778507983</v>
       </c>
       <c r="AM76">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ76, 0.01), 10)</f>
-        <v>1.0000000001830673</v>
+        <f t="shared" si="46"/>
+        <v>1.0000000026497848</v>
       </c>
       <c r="AN76">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK76, 0.01), 10)</f>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="AO76" s="2">
-        <f t="shared" si="46"/>
-        <v>11.000000000183068</v>
+        <f t="shared" si="48"/>
+        <v>11.000000002649784</v>
       </c>
     </row>
     <row r="77" spans="4:41" x14ac:dyDescent="0.2">
@@ -20952,7 +20912,7 @@
         <v>0.2</v>
       </c>
       <c r="E77" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.13200000000000001</v>
       </c>
       <c r="F77">
@@ -20965,7 +20925,7 @@
         <v>0.2</v>
       </c>
       <c r="V77">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.18</v>
       </c>
       <c r="W77">
@@ -20979,7 +20939,7 @@
         <v>1250</v>
       </c>
       <c r="AJ77">
-        <v>0.56775410528795045</v>
+        <v>3.922194161718065E-2</v>
       </c>
       <c r="AK77">
         <v>1.7061748421163059E-10</v>
@@ -20988,16 +20948,16 @@
         <v>0.70882167842663979</v>
       </c>
       <c r="AM77">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ77, 0.01), 10)</f>
-        <v>1.0000000000064815</v>
+        <f t="shared" si="46"/>
+        <v>1.0000000000938161</v>
       </c>
       <c r="AN77">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK77, 0.01), 10)</f>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="AO77" s="2">
-        <f t="shared" si="46"/>
-        <v>11.000000000006482</v>
+        <f t="shared" si="48"/>
+        <v>11.000000000093817</v>
       </c>
     </row>
     <row r="78" spans="4:41" x14ac:dyDescent="0.2">
@@ -21005,7 +20965,7 @@
         <v>0.25</v>
       </c>
       <c r="E78" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.13750000000000001</v>
       </c>
       <c r="F78">
@@ -21018,7 +20978,7 @@
         <v>0.25</v>
       </c>
       <c r="V78">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.1875</v>
       </c>
       <c r="W78">
@@ -21032,7 +20992,7 @@
         <v>1300</v>
       </c>
       <c r="AJ78">
-        <v>0.56775410529163028</v>
+        <v>3.9221941620860297E-2</v>
       </c>
       <c r="AK78">
         <v>7.9732606614445101E-12</v>
@@ -21041,15 +21001,15 @@
         <v>0.70882167844774358</v>
       </c>
       <c r="AM78">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ78, 0.01), 10)</f>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="AN78">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK78, 0.01), 10)</f>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="AO78" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>11</v>
       </c>
     </row>
@@ -21058,7 +21018,7 @@
         <v>0.3</v>
       </c>
       <c r="E79" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.14300000000000002</v>
       </c>
       <c r="F79">
@@ -21071,7 +21031,7 @@
         <v>0.3</v>
       </c>
       <c r="V79">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.19500000000000001</v>
       </c>
       <c r="W79">
@@ -21087,7 +21047,7 @@
         <v>0.35</v>
       </c>
       <c r="E80" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.14850000000000002</v>
       </c>
       <c r="F80">
@@ -21100,7 +21060,7 @@
         <v>0.35</v>
       </c>
       <c r="V80">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.20250000000000001</v>
       </c>
       <c r="W80">
@@ -21116,7 +21076,7 @@
         <v>0.4</v>
       </c>
       <c r="E81" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.154</v>
       </c>
       <c r="F81">
@@ -21129,7 +21089,7 @@
         <v>0.4</v>
       </c>
       <c r="V81">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.21</v>
       </c>
       <c r="W81">
@@ -21145,7 +21105,7 @@
         <v>0.45</v>
       </c>
       <c r="E82" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.1595</v>
       </c>
       <c r="F82">
@@ -21158,7 +21118,7 @@
         <v>0.45</v>
       </c>
       <c r="V82">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.2175</v>
       </c>
       <c r="W82">
@@ -21174,7 +21134,7 @@
         <v>0.5</v>
       </c>
       <c r="E83" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="F83">
@@ -21187,7 +21147,7 @@
         <v>0.5</v>
       </c>
       <c r="V83">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.22499999999999998</v>
       </c>
       <c r="W83">
@@ -21228,7 +21188,7 @@
       <c r="AC86" s="6"/>
       <c r="AJ86">
         <f>Mem_Catch</f>
-        <v>0.40755085979582245</v>
+        <v>2.7255757426047217E-3</v>
       </c>
       <c r="AK86">
         <f>Yield</f>
@@ -21247,7 +21207,7 @@
       </c>
       <c r="AJ87">
         <f t="dataTable" ref="AJ87:AL113" dt2D="0" dtr="0" r1="B17" ca="1"/>
-        <v>0.5677541052918158</v>
+        <v>3.9221941621045628E-2</v>
       </c>
       <c r="AK87">
         <v>0</v>
@@ -21256,16 +21216,16 @@
         <v>0.70882167844880473</v>
       </c>
       <c r="AM87">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ87, 0.01), 10)</f>
-        <v>0.99999999999967326</v>
+        <f t="shared" ref="AM87:AM113" si="52">MIN(MAX($AJ$52:$AJ$78)/MAX(AJ87, 0.01), 10)</f>
+        <v>0.99999999999527478</v>
       </c>
       <c r="AN87">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK87, 0.01), 10)</f>
+        <f t="shared" ref="AN87:AN113" si="53">MIN(MAX($AK$52:$AK$78)/MAX(AK87, 0.01), 10)</f>
         <v>10</v>
       </c>
       <c r="AO87" s="2">
         <f>AM87+AN87</f>
-        <v>10.999999999999673</v>
+        <v>10.999999999995275</v>
       </c>
     </row>
     <row r="88" spans="4:41" x14ac:dyDescent="0.2">
@@ -21274,7 +21234,7 @@
         <v>600</v>
       </c>
       <c r="AJ88">
-        <v>0.51687051674833517</v>
+        <v>3.2475814884951985E-2</v>
       </c>
       <c r="AK88">
         <v>0.17840079019765262</v>
@@ -21283,16 +21243,16 @@
         <v>0.59727406510718506</v>
       </c>
       <c r="AM88">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ88, 0.01), 10)</f>
-        <v>1.0984455233844774</v>
+        <f t="shared" si="52"/>
+        <v>1.2077277124471542</v>
       </c>
       <c r="AN88">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK88, 0.01), 10)</f>
-        <v>5.1972257422192829</v>
+        <f t="shared" si="53"/>
+        <v>5.1972257422192936</v>
       </c>
       <c r="AO88" s="2">
-        <f t="shared" ref="AO88:AO113" si="50">AM88+AN88</f>
-        <v>6.2956712656037599</v>
+        <f t="shared" ref="AO88:AO113" si="54">AM88+AN88</f>
+        <v>6.4049534546664475</v>
       </c>
     </row>
     <row r="89" spans="4:41" x14ac:dyDescent="0.2">
@@ -21301,7 +21261,7 @@
         <v>650</v>
       </c>
       <c r="AJ89">
-        <v>0.47573374164424354</v>
+        <v>2.5702863015071971E-2</v>
       </c>
       <c r="AK89">
         <v>0.36962511493786332</v>
@@ -21310,16 +21270,16 @@
         <v>0.49394021215635958</v>
       </c>
       <c r="AM89">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ89, 0.01), 10)</f>
-        <v>1.1934282889612655</v>
+        <f t="shared" si="52"/>
+        <v>1.5259755925968572</v>
       </c>
       <c r="AN89">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK89, 0.01), 10)</f>
-        <v>2.5084582777968674</v>
+        <f t="shared" si="53"/>
+        <v>2.5084582777968722</v>
       </c>
       <c r="AO89" s="2">
-        <f t="shared" si="50"/>
-        <v>3.7018865667581329</v>
+        <f t="shared" si="54"/>
+        <v>4.0344338703937295</v>
       </c>
     </row>
     <row r="90" spans="4:41" x14ac:dyDescent="0.2">
@@ -21347,7 +21307,7 @@
         <v>700</v>
       </c>
       <c r="AJ90">
-        <v>0.44817505368211696</v>
+        <v>1.9937705554373557E-2</v>
       </c>
       <c r="AK90">
         <v>0.53459698227526198</v>
@@ -21356,16 +21316,16 @@
         <v>0.41524517236734909</v>
       </c>
       <c r="AM90">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ90, 0.01), 10)</f>
-        <v>1.2668132700092869</v>
+        <f t="shared" si="52"/>
+        <v>1.9672244388350157</v>
       </c>
       <c r="AN90">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK90, 0.01), 10)</f>
-        <v>1.7343703948745741</v>
+        <f t="shared" si="53"/>
+        <v>1.7343703948745774</v>
       </c>
       <c r="AO90" s="2">
-        <f t="shared" si="50"/>
-        <v>3.001183664883861</v>
+        <f t="shared" si="54"/>
+        <v>3.701594833709593</v>
       </c>
     </row>
     <row r="91" spans="4:41" x14ac:dyDescent="0.2">
@@ -21393,7 +21353,7 @@
         <v>750</v>
       </c>
       <c r="AJ91">
-        <v>0.43106655627238832</v>
+        <v>1.5213794673034848E-2</v>
       </c>
       <c r="AK91">
         <v>0.66417180467546366</v>
@@ -21402,16 +21362,16 @@
         <v>0.35993524608218108</v>
       </c>
       <c r="AM91">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ91, 0.01), 10)</f>
-        <v>1.3170915187697139</v>
+        <f t="shared" si="52"/>
+        <v>2.578051200492264</v>
       </c>
       <c r="AN91">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK91, 0.01), 10)</f>
-        <v>1.3960080399687504</v>
+        <f t="shared" si="53"/>
+        <v>1.3960080399687531</v>
       </c>
       <c r="AO91" s="2">
-        <f t="shared" si="50"/>
-        <v>2.7130995587384641</v>
+        <f t="shared" si="54"/>
+        <v>3.9740592404610169</v>
       </c>
     </row>
     <row r="92" spans="4:41" x14ac:dyDescent="0.2">
@@ -21439,7 +21399,7 @@
         <v>800</v>
       </c>
       <c r="AJ92">
-        <v>0.41919229715837258</v>
+        <v>1.0753976315524466E-2</v>
       </c>
       <c r="AK92">
         <v>0.77476087674975047</v>
@@ -21448,16 +21408,16 @@
         <v>0.31697916256347031</v>
       </c>
       <c r="AM92">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ92, 0.01), 10)</f>
-        <v>1.3544001384098201</v>
+        <f t="shared" si="52"/>
+        <v>3.6472036454310772</v>
       </c>
       <c r="AN92">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK92, 0.01), 10)</f>
-        <v>1.1967423847435523</v>
+        <f t="shared" si="53"/>
+        <v>1.1967423847435545</v>
       </c>
       <c r="AO92" s="2">
-        <f t="shared" si="50"/>
-        <v>2.5511425231533726</v>
+        <f t="shared" si="54"/>
+        <v>4.8439460301746315</v>
       </c>
     </row>
     <row r="93" spans="4:41" x14ac:dyDescent="0.2">
@@ -21485,7 +21445,7 @@
         <v>850</v>
       </c>
       <c r="AJ93">
-        <v>0.41246515130717443</v>
+        <v>7.0341775358734957E-3</v>
       </c>
       <c r="AK93">
         <v>0.85151657769067224</v>
@@ -21494,16 +21454,16 @@
         <v>0.28974927853276039</v>
       </c>
       <c r="AM93">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ93, 0.01), 10)</f>
-        <v>1.3764898767624802</v>
+        <f t="shared" si="52"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN93">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK93, 0.01), 10)</f>
-        <v>1.0888680309220227</v>
+        <f t="shared" si="53"/>
+        <v>1.0888680309220247</v>
       </c>
       <c r="AO93" s="2">
-        <f t="shared" si="50"/>
-        <v>2.4653579076845027</v>
+        <f t="shared" si="54"/>
+        <v>5.0110621930080548</v>
       </c>
     </row>
     <row r="94" spans="4:41" x14ac:dyDescent="0.2">
@@ -21531,7 +21491,7 @@
         <v>900</v>
       </c>
       <c r="AJ94">
-        <v>0.40911062449414182</v>
+        <v>4.2634492654798767E-3</v>
       </c>
       <c r="AK94">
         <v>0.89789808028324303</v>
@@ -21540,16 +21500,16 @@
         <v>0.27465826337192639</v>
       </c>
       <c r="AM94">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ94, 0.01), 10)</f>
-        <v>1.3877764870898877</v>
+        <f t="shared" si="52"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN94">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK94, 0.01), 10)</f>
-        <v>1.0326218527552913</v>
+        <f t="shared" si="53"/>
+        <v>1.0326218527552933</v>
       </c>
       <c r="AO94" s="2">
-        <f t="shared" si="50"/>
-        <v>2.4203983398451792</v>
+        <f t="shared" si="54"/>
+        <v>4.9548160148413229</v>
       </c>
     </row>
     <row r="95" spans="4:41" x14ac:dyDescent="0.2">
@@ -21577,7 +21537,7 @@
         <v>950</v>
       </c>
       <c r="AJ95">
-        <v>0.40783354902360491</v>
+        <v>3.0080249154933749E-3</v>
       </c>
       <c r="AK95">
         <v>0.91934672906245618</v>
@@ -21586,16 +21546,16 @@
         <v>0.26831858229801453</v>
       </c>
       <c r="AM95">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ95, 0.01), 10)</f>
-        <v>1.3921221210243528</v>
+        <f t="shared" si="52"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN95">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK95, 0.01), 10)</f>
-        <v>1.0085304596591573</v>
+        <f t="shared" si="53"/>
+        <v>1.0085304596591593</v>
       </c>
       <c r="AO95" s="2">
-        <f t="shared" si="50"/>
-        <v>2.4006525806835102</v>
+        <f t="shared" si="54"/>
+        <v>4.9307246217451892</v>
       </c>
     </row>
     <row r="96" spans="4:41" x14ac:dyDescent="0.2">
@@ -21622,7 +21582,7 @@
         <v>1000</v>
       </c>
       <c r="AJ96">
-        <v>0.40756409367592883</v>
+        <v>2.7388072382086171E-3</v>
       </c>
       <c r="AK96">
         <v>0.9250895446055788</v>
@@ -21631,16 +21591,16 @@
         <v>0.26686656399605752</v>
       </c>
       <c r="AM96">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ96, 0.01), 10)</f>
-        <v>1.3930425032561264</v>
+        <f t="shared" si="52"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN96">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK96, 0.01), 10)</f>
-        <v>1.0022696555746051</v>
+        <f t="shared" si="53"/>
+        <v>1.0022696555746071</v>
       </c>
       <c r="AO96" s="2">
-        <f t="shared" si="50"/>
-        <v>2.3953121588307313</v>
+        <f t="shared" si="54"/>
+        <v>4.9244638176606372</v>
       </c>
     </row>
     <row r="97" spans="5:41" x14ac:dyDescent="0.2">
@@ -21667,7 +21627,7 @@
         <v>1050</v>
       </c>
       <c r="AJ97">
-        <v>0.4075510116533213</v>
+        <v>2.7257275670316055E-3</v>
       </c>
       <c r="AK97">
         <v>0.92547863211651249</v>
@@ -21676,16 +21636,16 @@
         <v>0.26679284187613772</v>
       </c>
       <c r="AM97">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ97, 0.01), 10)</f>
-        <v>1.3930872186733374</v>
+        <f t="shared" si="52"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN97">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK97, 0.01), 10)</f>
-        <v>1.0018482837654257</v>
+        <f t="shared" si="53"/>
+        <v>1.0018482837654277</v>
       </c>
       <c r="AO97" s="2">
-        <f t="shared" si="50"/>
-        <v>2.3949355024387629</v>
+        <f t="shared" si="54"/>
+        <v>4.9240424458514571</v>
       </c>
     </row>
     <row r="98" spans="5:41" x14ac:dyDescent="0.2">
@@ -21712,7 +21672,7 @@
         <v>1100</v>
       </c>
       <c r="AJ98">
-        <v>0.40755086195048618</v>
+        <v>2.7255778965810523E-3</v>
       </c>
       <c r="AK98">
         <v>0.92548343601314587</v>
@@ -21721,16 +21681,16 @@
         <v>0.26679199593344399</v>
       </c>
       <c r="AM98">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ98, 0.01), 10)</f>
-        <v>1.393087730386416</v>
+        <f t="shared" si="52"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN98">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK98, 0.01), 10)</f>
-        <v>1.0018430834826217</v>
+        <f t="shared" si="53"/>
+        <v>1.0018430834826237</v>
       </c>
       <c r="AO98" s="2">
-        <f t="shared" si="50"/>
-        <v>2.3949308138690375</v>
+        <f t="shared" si="54"/>
+        <v>4.9240372455686536</v>
       </c>
     </row>
     <row r="99" spans="5:41" x14ac:dyDescent="0.2">
@@ -21757,7 +21717,7 @@
         <v>1150</v>
       </c>
       <c r="AJ99">
-        <v>0.40755085984023076</v>
+        <v>2.7255757869927536E-3</v>
       </c>
       <c r="AK99">
         <v>0.92548350143463853</v>
@@ -21766,16 +21726,16 @@
         <v>0.2667919840471692</v>
       </c>
       <c r="AM99">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ99, 0.01), 10)</f>
-        <v>1.3930877375996773</v>
+        <f t="shared" si="52"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN99">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK99, 0.01), 10)</f>
-        <v>1.0018430126633475</v>
+        <f t="shared" si="53"/>
+        <v>1.0018430126633495</v>
       </c>
       <c r="AO99" s="2">
-        <f t="shared" si="50"/>
-        <v>2.3949307502630246</v>
+        <f t="shared" si="54"/>
+        <v>4.9240371747493796</v>
       </c>
     </row>
     <row r="100" spans="5:41" x14ac:dyDescent="0.2">
@@ -21783,7 +21743,7 @@
         <v>1200</v>
       </c>
       <c r="AJ100">
-        <v>0.40755085979709388</v>
+        <v>2.7255757438753823E-3</v>
       </c>
       <c r="AK100">
         <v>0.92548350272759561</v>
@@ -21792,16 +21752,16 @@
         <v>0.26679198380500552</v>
       </c>
       <c r="AM100">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ100, 0.01), 10)</f>
-        <v>1.3930877377471276</v>
+        <f t="shared" si="52"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN100">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK100, 0.01), 10)</f>
-        <v>1.0018430112637116</v>
+        <f t="shared" si="53"/>
+        <v>1.0018430112637136</v>
       </c>
       <c r="AO100" s="2">
-        <f t="shared" si="50"/>
-        <v>2.3949307490108391</v>
+        <f t="shared" si="54"/>
+        <v>4.9240371733497437</v>
       </c>
     </row>
     <row r="101" spans="5:41" x14ac:dyDescent="0.2">
@@ -21809,7 +21769,7 @@
         <v>1250</v>
       </c>
       <c r="AJ101">
-        <v>0.40755085979587086</v>
+        <v>2.7255757426532861E-3</v>
       </c>
       <c r="AK101">
         <v>0.92548350276311231</v>
@@ -21818,16 +21778,16 @@
         <v>0.26679198379816366</v>
       </c>
       <c r="AM101">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ101, 0.01), 10)</f>
-        <v>1.3930877377513082</v>
+        <f t="shared" si="52"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN101">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK101, 0.01), 10)</f>
-        <v>1.0018430112252645</v>
+        <f t="shared" si="53"/>
+        <v>1.0018430112252663</v>
       </c>
       <c r="AO101" s="2">
-        <f t="shared" si="50"/>
-        <v>2.3949307489765728</v>
+        <f t="shared" si="54"/>
+        <v>4.9240371733112962</v>
       </c>
     </row>
     <row r="102" spans="5:41" x14ac:dyDescent="0.2">
@@ -21835,7 +21795,7 @@
         <v>1300</v>
       </c>
       <c r="AJ102">
-        <v>0.40755085979582478</v>
+        <v>2.7255757426071173E-3</v>
       </c>
       <c r="AK102">
         <v>0.92548350276441482</v>
@@ -21844,16 +21804,16 @@
         <v>0.26679198379790608</v>
       </c>
       <c r="AM102">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ102, 0.01), 10)</f>
-        <v>1.3930877377514657</v>
+        <f t="shared" si="52"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN102">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK102, 0.01), 10)</f>
-        <v>1.0018430112238546</v>
+        <f t="shared" si="53"/>
+        <v>1.0018430112238563</v>
       </c>
       <c r="AO102" s="2">
-        <f t="shared" si="50"/>
-        <v>2.3949307489753204</v>
+        <f t="shared" si="54"/>
+        <v>4.9240371733098858</v>
       </c>
     </row>
     <row r="103" spans="5:41" x14ac:dyDescent="0.2">
@@ -21861,7 +21821,7 @@
         <v>1350</v>
       </c>
       <c r="AJ103">
-        <v>0.40755085979582256</v>
+        <v>2.7255757426048691E-3</v>
       </c>
       <c r="AK103">
         <v>0.92548350276447722</v>
@@ -21870,16 +21830,16 @@
         <v>0.26679198379789359</v>
       </c>
       <c r="AM103">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ103, 0.01), 10)</f>
-        <v>1.3930877377514732</v>
+        <f t="shared" si="52"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN103">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK103, 0.01), 10)</f>
-        <v>1.0018430112237868</v>
+        <f t="shared" si="53"/>
+        <v>1.0018430112237888</v>
       </c>
       <c r="AO103" s="2">
-        <f t="shared" si="50"/>
-        <v>2.39493074897526</v>
+        <f t="shared" si="54"/>
+        <v>4.9240371733098183</v>
       </c>
     </row>
     <row r="104" spans="5:41" x14ac:dyDescent="0.2">
@@ -21887,7 +21847,7 @@
         <v>1400</v>
       </c>
       <c r="AJ104">
-        <v>0.40755085979582245</v>
+        <v>2.7255757426047317E-3</v>
       </c>
       <c r="AK104">
         <v>0.92548350276448077</v>
@@ -21896,16 +21856,16 @@
         <v>0.26679198379789282</v>
       </c>
       <c r="AM104">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ104, 0.01), 10)</f>
-        <v>1.3930877377514737</v>
+        <f t="shared" si="52"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN104">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK104, 0.01), 10)</f>
-        <v>1.0018430112237831</v>
+        <f t="shared" si="53"/>
+        <v>1.0018430112237851</v>
       </c>
       <c r="AO104" s="2">
-        <f t="shared" si="50"/>
-        <v>2.3949307489752565</v>
+        <f t="shared" si="54"/>
+        <v>4.9240371733098147</v>
       </c>
     </row>
     <row r="105" spans="5:41" x14ac:dyDescent="0.2">
@@ -21914,7 +21874,7 @@
         <v>1450</v>
       </c>
       <c r="AJ105">
-        <v>0.40755085979582245</v>
+        <v>2.7255757426047217E-3</v>
       </c>
       <c r="AK105">
         <v>0.92548350276448099</v>
@@ -21923,16 +21883,16 @@
         <v>0.26679198379789282</v>
       </c>
       <c r="AM105">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ105, 0.01), 10)</f>
-        <v>1.3930877377514737</v>
+        <f t="shared" si="52"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN105">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK105, 0.01), 10)</f>
-        <v>1.0018430112237828</v>
+        <f t="shared" si="53"/>
+        <v>1.0018430112237848</v>
       </c>
       <c r="AO105" s="2">
-        <f t="shared" si="50"/>
-        <v>2.3949307489752565</v>
+        <f t="shared" si="54"/>
+        <v>4.9240371733098147</v>
       </c>
     </row>
     <row r="106" spans="5:41" x14ac:dyDescent="0.2">
@@ -21942,7 +21902,7 @@
         <v>1500</v>
       </c>
       <c r="AJ106">
-        <v>0.40755085979582245</v>
+        <v>2.7255757426047217E-3</v>
       </c>
       <c r="AK106">
         <v>0.92548350276448099</v>
@@ -21951,16 +21911,16 @@
         <v>0.26679198379789282</v>
       </c>
       <c r="AM106">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ106, 0.01), 10)</f>
-        <v>1.3930877377514737</v>
+        <f t="shared" si="52"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN106">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK106, 0.01), 10)</f>
-        <v>1.0018430112237828</v>
+        <f t="shared" si="53"/>
+        <v>1.0018430112237848</v>
       </c>
       <c r="AO106" s="2">
-        <f t="shared" si="50"/>
-        <v>2.3949307489752565</v>
+        <f t="shared" si="54"/>
+        <v>4.9240371733098147</v>
       </c>
     </row>
     <row r="107" spans="5:41" x14ac:dyDescent="0.2">
@@ -21970,7 +21930,7 @@
         <v>1550</v>
       </c>
       <c r="AJ107">
-        <v>0.40755085979582245</v>
+        <v>2.7255757426047217E-3</v>
       </c>
       <c r="AK107">
         <v>0.92548350276448099</v>
@@ -21979,16 +21939,16 @@
         <v>0.26679198379789282</v>
       </c>
       <c r="AM107">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ107, 0.01), 10)</f>
-        <v>1.3930877377514737</v>
+        <f t="shared" si="52"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN107">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK107, 0.01), 10)</f>
-        <v>1.0018430112237828</v>
+        <f t="shared" si="53"/>
+        <v>1.0018430112237848</v>
       </c>
       <c r="AO107" s="2">
-        <f t="shared" si="50"/>
-        <v>2.3949307489752565</v>
+        <f t="shared" si="54"/>
+        <v>4.9240371733098147</v>
       </c>
     </row>
     <row r="108" spans="5:41" x14ac:dyDescent="0.2">
@@ -21998,7 +21958,7 @@
         <v>1600</v>
       </c>
       <c r="AJ108">
-        <v>0.40755085979582245</v>
+        <v>2.7255757426047217E-3</v>
       </c>
       <c r="AK108">
         <v>0.92548350276448099</v>
@@ -22007,16 +21967,16 @@
         <v>0.26679198379789282</v>
       </c>
       <c r="AM108">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ108, 0.01), 10)</f>
-        <v>1.3930877377514737</v>
+        <f t="shared" si="52"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN108">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK108, 0.01), 10)</f>
-        <v>1.0018430112237828</v>
+        <f t="shared" si="53"/>
+        <v>1.0018430112237848</v>
       </c>
       <c r="AO108" s="2">
-        <f t="shared" si="50"/>
-        <v>2.3949307489752565</v>
+        <f t="shared" si="54"/>
+        <v>4.9240371733098147</v>
       </c>
     </row>
     <row r="109" spans="5:41" x14ac:dyDescent="0.2">
@@ -22026,7 +21986,7 @@
         <v>1650</v>
       </c>
       <c r="AJ109">
-        <v>0.40755085979582245</v>
+        <v>2.7255757426047217E-3</v>
       </c>
       <c r="AK109">
         <v>0.92548350276448099</v>
@@ -22035,16 +21995,16 @@
         <v>0.26679198379789282</v>
       </c>
       <c r="AM109">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ109, 0.01), 10)</f>
-        <v>1.3930877377514737</v>
+        <f t="shared" si="52"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN109">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK109, 0.01), 10)</f>
-        <v>1.0018430112237828</v>
+        <f t="shared" si="53"/>
+        <v>1.0018430112237848</v>
       </c>
       <c r="AO109" s="2">
-        <f t="shared" si="50"/>
-        <v>2.3949307489752565</v>
+        <f t="shared" si="54"/>
+        <v>4.9240371733098147</v>
       </c>
     </row>
     <row r="110" spans="5:41" x14ac:dyDescent="0.2">
@@ -22054,7 +22014,7 @@
         <v>1700</v>
       </c>
       <c r="AJ110">
-        <v>0.40755085979582245</v>
+        <v>2.7255757426047217E-3</v>
       </c>
       <c r="AK110">
         <v>0.92548350276448099</v>
@@ -22063,16 +22023,16 @@
         <v>0.26679198379789282</v>
       </c>
       <c r="AM110">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ110, 0.01), 10)</f>
-        <v>1.3930877377514737</v>
+        <f t="shared" si="52"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN110">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK110, 0.01), 10)</f>
-        <v>1.0018430112237828</v>
+        <f t="shared" si="53"/>
+        <v>1.0018430112237848</v>
       </c>
       <c r="AO110" s="2">
-        <f t="shared" si="50"/>
-        <v>2.3949307489752565</v>
+        <f t="shared" si="54"/>
+        <v>4.9240371733098147</v>
       </c>
     </row>
     <row r="111" spans="5:41" x14ac:dyDescent="0.2">
@@ -22082,7 +22042,7 @@
         <v>1750</v>
       </c>
       <c r="AJ111">
-        <v>0.40755085979582245</v>
+        <v>2.7255757426047217E-3</v>
       </c>
       <c r="AK111">
         <v>0.92548350276448099</v>
@@ -22091,16 +22051,16 @@
         <v>0.26679198379789282</v>
       </c>
       <c r="AM111">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ111, 0.01), 10)</f>
-        <v>1.3930877377514737</v>
+        <f t="shared" si="52"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN111">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK111, 0.01), 10)</f>
-        <v>1.0018430112237828</v>
+        <f t="shared" si="53"/>
+        <v>1.0018430112237848</v>
       </c>
       <c r="AO111" s="2">
-        <f t="shared" si="50"/>
-        <v>2.3949307489752565</v>
+        <f t="shared" si="54"/>
+        <v>4.9240371733098147</v>
       </c>
     </row>
     <row r="112" spans="5:41" x14ac:dyDescent="0.2">
@@ -22110,7 +22070,7 @@
         <v>1800</v>
       </c>
       <c r="AJ112">
-        <v>0.40755085979582245</v>
+        <v>2.7255757426047217E-3</v>
       </c>
       <c r="AK112">
         <v>0.92548350276448099</v>
@@ -22119,16 +22079,16 @@
         <v>0.26679198379789282</v>
       </c>
       <c r="AM112">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ112, 0.01), 10)</f>
-        <v>1.3930877377514737</v>
+        <f t="shared" si="52"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN112">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK112, 0.01), 10)</f>
-        <v>1.0018430112237828</v>
+        <f t="shared" si="53"/>
+        <v>1.0018430112237848</v>
       </c>
       <c r="AO112" s="2">
-        <f t="shared" si="50"/>
-        <v>2.3949307489752565</v>
+        <f t="shared" si="54"/>
+        <v>4.9240371733098147</v>
       </c>
     </row>
     <row r="113" spans="5:41" x14ac:dyDescent="0.2">
@@ -22138,7 +22098,7 @@
         <v>1850</v>
       </c>
       <c r="AJ113">
-        <v>0.40755085979582245</v>
+        <v>2.7255757426047217E-3</v>
       </c>
       <c r="AK113">
         <v>0.92548350276448099</v>
@@ -22147,16 +22107,16 @@
         <v>0.26679198379789282</v>
       </c>
       <c r="AM113">
-        <f>MIN(MAX($AJ$52:$AJ$78)/MAX(AJ113, 0.01), 10)</f>
-        <v>1.3930877377514737</v>
+        <f t="shared" si="52"/>
+        <v>3.9221941620860297</v>
       </c>
       <c r="AN113">
-        <f>MIN(MAX($AK$52:$AK$78)/MAX(AK113, 0.01), 10)</f>
-        <v>1.0018430112237828</v>
+        <f t="shared" si="53"/>
+        <v>1.0018430112237848</v>
       </c>
       <c r="AO113" s="2">
-        <f t="shared" si="50"/>
-        <v>2.3949307489752565</v>
+        <f t="shared" si="54"/>
+        <v>4.9240371733098147</v>
       </c>
     </row>
     <row r="114" spans="5:41" x14ac:dyDescent="0.2">
@@ -22670,9 +22630,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK26:AV33">
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="lessThan">
-      <formula>0.35</formula>
-    </cfRule>
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -22682,6 +22639,9 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="lessThan">
+      <formula>0.35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK37:AV44">
@@ -22732,8 +22692,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ37:BK44">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="AZ26:BK33">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -22744,8 +22704,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ26:BK33">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="AZ37:BK44">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
